--- a/database/industries/siman/sekord/cost/quarterly.xlsx
+++ b/database/industries/siman/sekord/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekord\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekord\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6482E774-8251-40F3-89AE-44CFE508EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A74D27F-0029-449D-844E-512581F8CA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل اول منتهی به 1399/09</t>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل اول منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -770,12 +770,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -790,7 +790,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -839,7 +839,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -856,7 +856,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -888,7 +888,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -925,7 +925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -940,155 +940,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>83397</v>
+        <v>97917</v>
       </c>
       <c r="F10" s="9">
-        <v>97917</v>
+        <v>199151</v>
       </c>
       <c r="G10" s="9">
-        <v>199151</v>
+        <v>144460</v>
       </c>
       <c r="H10" s="9">
-        <v>144460</v>
+        <v>532</v>
       </c>
       <c r="I10" s="9">
-        <v>532</v>
+        <v>152873</v>
       </c>
       <c r="J10" s="9">
-        <v>152873</v>
+        <v>145177</v>
       </c>
       <c r="K10" s="9">
-        <v>145177</v>
+        <v>194553</v>
       </c>
       <c r="L10" s="9">
-        <v>194553</v>
+        <v>134570</v>
       </c>
       <c r="M10" s="9">
-        <v>134570</v>
+        <v>224869</v>
       </c>
       <c r="N10" s="9">
-        <v>224869</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>217864</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>17927</v>
+        <v>17444</v>
       </c>
       <c r="F11" s="11">
-        <v>17444</v>
+        <v>19719</v>
       </c>
       <c r="G11" s="11">
-        <v>19719</v>
+        <v>31013</v>
       </c>
       <c r="H11" s="11">
-        <v>31013</v>
+        <v>29448</v>
       </c>
       <c r="I11" s="11">
-        <v>29448</v>
+        <v>18199</v>
       </c>
       <c r="J11" s="11">
-        <v>18199</v>
+        <v>17107</v>
       </c>
       <c r="K11" s="11">
-        <v>17107</v>
+        <v>31572</v>
       </c>
       <c r="L11" s="11">
-        <v>31572</v>
+        <v>22119</v>
       </c>
       <c r="M11" s="11">
-        <v>22119</v>
+        <v>20312</v>
       </c>
       <c r="N11" s="11">
-        <v>20312</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22620</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>247558</v>
+        <v>188147</v>
       </c>
       <c r="F12" s="9">
-        <v>188147</v>
+        <v>261655</v>
       </c>
       <c r="G12" s="9">
-        <v>261655</v>
+        <v>269324</v>
       </c>
       <c r="H12" s="9">
-        <v>269324</v>
+        <v>338548</v>
       </c>
       <c r="I12" s="9">
-        <v>338548</v>
+        <v>391856</v>
       </c>
       <c r="J12" s="9">
-        <v>391856</v>
+        <v>472916</v>
       </c>
       <c r="K12" s="9">
-        <v>472916</v>
+        <v>575672</v>
       </c>
       <c r="L12" s="9">
-        <v>575672</v>
+        <v>556711</v>
       </c>
       <c r="M12" s="9">
-        <v>556711</v>
+        <v>573014</v>
       </c>
       <c r="N12" s="9">
-        <v>573014</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>514655</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>348882</v>
+        <v>303508</v>
       </c>
       <c r="F13" s="13">
-        <v>303508</v>
+        <v>480525</v>
       </c>
       <c r="G13" s="13">
-        <v>480525</v>
+        <v>444797</v>
       </c>
       <c r="H13" s="13">
-        <v>444797</v>
+        <v>368528</v>
       </c>
       <c r="I13" s="13">
-        <v>368528</v>
+        <v>562928</v>
       </c>
       <c r="J13" s="13">
-        <v>562928</v>
+        <v>635200</v>
       </c>
       <c r="K13" s="13">
-        <v>635200</v>
+        <v>801797</v>
       </c>
       <c r="L13" s="13">
-        <v>801797</v>
+        <v>713400</v>
       </c>
       <c r="M13" s="13">
-        <v>713400</v>
+        <v>818195</v>
       </c>
       <c r="N13" s="13">
-        <v>818195</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>755139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1125,100 +1125,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>348882</v>
+        <v>303508</v>
       </c>
       <c r="F15" s="13">
-        <v>303508</v>
+        <v>480525</v>
       </c>
       <c r="G15" s="13">
-        <v>480525</v>
+        <v>444797</v>
       </c>
       <c r="H15" s="13">
-        <v>444797</v>
+        <v>368528</v>
       </c>
       <c r="I15" s="13">
-        <v>368528</v>
+        <v>562928</v>
       </c>
       <c r="J15" s="13">
-        <v>562928</v>
+        <v>635200</v>
       </c>
       <c r="K15" s="13">
-        <v>635200</v>
+        <v>801797</v>
       </c>
       <c r="L15" s="13">
-        <v>801797</v>
+        <v>713400</v>
       </c>
       <c r="M15" s="13">
-        <v>713400</v>
+        <v>818195</v>
       </c>
       <c r="N15" s="13">
-        <v>818195</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>755139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>33942</v>
+        <v>218183</v>
       </c>
       <c r="F16" s="9">
-        <v>218183</v>
+        <v>-225267</v>
       </c>
       <c r="G16" s="9">
-        <v>-225267</v>
+        <v>-66275</v>
       </c>
       <c r="H16" s="9">
-        <v>-66275</v>
+        <v>-12116</v>
       </c>
       <c r="I16" s="9">
-        <v>-12116</v>
+        <v>-22982</v>
       </c>
       <c r="J16" s="9">
-        <v>-22982</v>
+        <v>-81925</v>
       </c>
       <c r="K16" s="9">
-        <v>-81925</v>
+        <v>-56451</v>
       </c>
       <c r="L16" s="9">
-        <v>-56451</v>
+        <v>59113</v>
       </c>
       <c r="M16" s="9">
-        <v>59113</v>
+        <v>-244044</v>
       </c>
       <c r="N16" s="9">
-        <v>-244044</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-316379</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>-266642</v>
       </c>
       <c r="F17" s="11">
-        <v>-266642</v>
+        <v>165159</v>
       </c>
       <c r="G17" s="11">
-        <v>165159</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="11">
-        <v>-1</v>
+        <v>101484</v>
       </c>
       <c r="I17" s="11">
-        <v>101484</v>
+        <v>0</v>
       </c>
       <c r="J17" s="11">
         <v>0</v>
@@ -1236,155 +1236,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>382824</v>
+        <v>255049</v>
       </c>
       <c r="F18" s="15">
-        <v>255049</v>
+        <v>420417</v>
       </c>
       <c r="G18" s="15">
-        <v>420417</v>
+        <v>378521</v>
       </c>
       <c r="H18" s="15">
-        <v>378521</v>
+        <v>457896</v>
       </c>
       <c r="I18" s="15">
-        <v>457896</v>
+        <v>539946</v>
       </c>
       <c r="J18" s="15">
-        <v>539946</v>
+        <v>553275</v>
       </c>
       <c r="K18" s="15">
-        <v>553275</v>
+        <v>745346</v>
       </c>
       <c r="L18" s="15">
-        <v>745346</v>
+        <v>772513</v>
       </c>
       <c r="M18" s="15">
-        <v>772513</v>
+        <v>574151</v>
       </c>
       <c r="N18" s="15">
-        <v>574151</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>438760</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>36722</v>
       </c>
       <c r="F19" s="11">
-        <v>36722</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>42916</v>
       </c>
       <c r="I19" s="11">
-        <v>5535</v>
+        <v>46621</v>
       </c>
       <c r="J19" s="11">
-        <v>46621</v>
+        <v>59548</v>
       </c>
       <c r="K19" s="11">
-        <v>0</v>
+        <v>39494</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
+        <v>48041</v>
       </c>
       <c r="M19" s="11">
-        <v>8547</v>
+        <v>52965</v>
       </c>
       <c r="N19" s="11">
-        <v>52965</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>80134</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-46</v>
+        <v>-35189</v>
       </c>
       <c r="F20" s="9">
-        <v>-35189</v>
+        <v>-13262</v>
       </c>
       <c r="G20" s="9">
-        <v>-13262</v>
+        <v>5535</v>
       </c>
       <c r="H20" s="9">
-        <v>5535</v>
+        <v>-46621</v>
       </c>
       <c r="I20" s="9">
-        <v>-46621</v>
+        <v>-59548</v>
       </c>
       <c r="J20" s="9">
-        <v>-59548</v>
+        <v>-39494</v>
       </c>
       <c r="K20" s="9">
-        <v>20054</v>
+        <v>-48041</v>
       </c>
       <c r="L20" s="9">
-        <v>-8547</v>
+        <v>-52965</v>
       </c>
       <c r="M20" s="9">
-        <v>-52965</v>
+        <v>-80134</v>
       </c>
       <c r="N20" s="9">
-        <v>-80134</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-45235</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>382778</v>
+        <v>256582</v>
       </c>
       <c r="F21" s="13">
-        <v>256582</v>
+        <v>407155</v>
       </c>
       <c r="G21" s="13">
-        <v>407155</v>
+        <v>384056</v>
       </c>
       <c r="H21" s="13">
-        <v>384056</v>
+        <v>454191</v>
       </c>
       <c r="I21" s="13">
-        <v>454191</v>
+        <v>527019</v>
       </c>
       <c r="J21" s="13">
-        <v>527019</v>
+        <v>573329</v>
       </c>
       <c r="K21" s="13">
-        <v>573329</v>
+        <v>736799</v>
       </c>
       <c r="L21" s="13">
-        <v>736799</v>
+        <v>767589</v>
       </c>
       <c r="M21" s="13">
-        <v>767589</v>
+        <v>546982</v>
       </c>
       <c r="N21" s="13">
-        <v>546982</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>473659</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1421,44 +1421,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>382778</v>
+        <v>256582</v>
       </c>
       <c r="F23" s="13">
-        <v>256582</v>
+        <v>407155</v>
       </c>
       <c r="G23" s="13">
-        <v>407155</v>
+        <v>384056</v>
       </c>
       <c r="H23" s="13">
-        <v>384056</v>
+        <v>454191</v>
       </c>
       <c r="I23" s="13">
-        <v>454191</v>
+        <v>527019</v>
       </c>
       <c r="J23" s="13">
-        <v>527019</v>
+        <v>573329</v>
       </c>
       <c r="K23" s="13">
-        <v>573329</v>
+        <v>736799</v>
       </c>
       <c r="L23" s="13">
-        <v>736799</v>
+        <v>767589</v>
       </c>
       <c r="M23" s="13">
-        <v>767589</v>
+        <v>546982</v>
       </c>
       <c r="N23" s="13">
-        <v>546982</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>473659</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1473,7 +1473,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1488,7 +1488,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1503,7 +1503,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1555,7 +1555,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>37</v>
       </c>
@@ -1720,37 +1720,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>28248</v>
+        <v>27695</v>
       </c>
       <c r="F33" s="9">
-        <v>27695</v>
+        <v>30397</v>
       </c>
       <c r="G33" s="9">
-        <v>30397</v>
+        <v>44658</v>
       </c>
       <c r="H33" s="9">
-        <v>44658</v>
+        <v>44187</v>
       </c>
       <c r="I33" s="9">
-        <v>44187</v>
-      </c>
-      <c r="J33" s="9">
         <v>37524</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>31</v>
+      <c r="J33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="9">
+        <v>23063</v>
       </c>
       <c r="L33" s="9">
-        <v>23063</v>
+        <v>39607</v>
       </c>
       <c r="M33" s="9">
-        <v>39607</v>
+        <v>43727</v>
       </c>
       <c r="N33" s="9">
-        <v>43727</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26514</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>40</v>
       </c>
@@ -1837,37 +1837,37 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>30903</v>
+        <v>29885</v>
       </c>
       <c r="F36" s="11">
-        <v>29885</v>
+        <v>48318</v>
       </c>
       <c r="G36" s="11">
-        <v>48318</v>
+        <v>110944</v>
       </c>
       <c r="H36" s="11">
-        <v>110944</v>
+        <v>107053</v>
       </c>
       <c r="I36" s="11">
-        <v>107053</v>
-      </c>
-      <c r="J36" s="11">
         <v>63800</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>31</v>
+      <c r="J36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="11">
+        <v>67775</v>
       </c>
       <c r="L36" s="11">
-        <v>67775</v>
+        <v>73745</v>
       </c>
       <c r="M36" s="11">
-        <v>73745</v>
+        <v>105534</v>
       </c>
       <c r="N36" s="11">
-        <v>105534</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>67389</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>41</v>
       </c>
@@ -1876,37 +1876,37 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>2439</v>
+        <v>13233</v>
       </c>
       <c r="F37" s="9">
-        <v>13233</v>
+        <v>17516</v>
       </c>
       <c r="G37" s="9">
-        <v>17516</v>
+        <v>25210</v>
       </c>
       <c r="H37" s="9">
-        <v>25210</v>
+        <v>17664</v>
       </c>
       <c r="I37" s="9">
-        <v>17664</v>
-      </c>
-      <c r="J37" s="9">
         <v>12378</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>31</v>
+      <c r="J37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="9">
+        <v>4382</v>
       </c>
       <c r="L37" s="9">
-        <v>4382</v>
+        <v>8109</v>
       </c>
       <c r="M37" s="9">
-        <v>8109</v>
+        <v>18835</v>
       </c>
       <c r="N37" s="9">
-        <v>18835</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17548</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>42</v>
       </c>
@@ -1915,37 +1915,37 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>670383</v>
+        <v>682548</v>
       </c>
       <c r="F38" s="11">
-        <v>682548</v>
+        <v>702585</v>
       </c>
       <c r="G38" s="11">
-        <v>702585</v>
+        <v>729854</v>
       </c>
       <c r="H38" s="11">
-        <v>729854</v>
+        <v>726868</v>
       </c>
       <c r="I38" s="11">
-        <v>726868</v>
-      </c>
-      <c r="J38" s="11">
         <v>718379</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>31</v>
+      <c r="J38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="11">
+        <v>652585</v>
       </c>
       <c r="L38" s="11">
-        <v>652585</v>
+        <v>650786</v>
       </c>
       <c r="M38" s="11">
-        <v>650786</v>
+        <v>734189</v>
       </c>
       <c r="N38" s="11">
-        <v>734189</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>612954</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>43</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>44</v>
       </c>
@@ -1993,37 +1993,37 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>2219464</v>
+        <v>2188737</v>
       </c>
       <c r="F40" s="11">
-        <v>2188737</v>
+        <v>1915877</v>
       </c>
       <c r="G40" s="11">
-        <v>1915877</v>
+        <v>1610090</v>
       </c>
       <c r="H40" s="11">
-        <v>1610090</v>
+        <v>2431563</v>
       </c>
       <c r="I40" s="11">
-        <v>2431563</v>
-      </c>
-      <c r="J40" s="11">
         <v>2643285</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>31</v>
+      <c r="J40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1938582</v>
       </c>
       <c r="L40" s="11">
-        <v>1938582</v>
+        <v>1547637</v>
       </c>
       <c r="M40" s="11">
-        <v>1547637</v>
+        <v>1626925</v>
       </c>
       <c r="N40" s="11">
-        <v>1626925</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1721003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>46</v>
       </c>
@@ -2032,37 +2032,37 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>6472</v>
+        <v>17438</v>
       </c>
       <c r="F41" s="9">
-        <v>17438</v>
+        <v>18196</v>
       </c>
       <c r="G41" s="9">
-        <v>18196</v>
+        <v>32256</v>
       </c>
       <c r="H41" s="9">
-        <v>32256</v>
+        <v>20933</v>
       </c>
       <c r="I41" s="9">
-        <v>20933</v>
-      </c>
-      <c r="J41" s="9">
         <v>9684</v>
       </c>
-      <c r="K41" s="9" t="s">
-        <v>31</v>
+      <c r="J41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="9">
+        <v>53845</v>
       </c>
       <c r="L41" s="9">
-        <v>53845</v>
+        <v>58337</v>
       </c>
       <c r="M41" s="9">
-        <v>58337</v>
+        <v>84124</v>
       </c>
       <c r="N41" s="9">
-        <v>84124</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>88820</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>47</v>
       </c>
@@ -2076,11 +2076,11 @@
       <c r="F42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>31</v>
@@ -2101,7 +2101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>48</v>
       </c>
@@ -2109,18 +2109,18 @@
         <v>35</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>31</v>
+      <c r="E43" s="9">
+        <v>8871</v>
       </c>
       <c r="F43" s="9">
-        <v>8871</v>
+        <v>13061</v>
       </c>
       <c r="G43" s="9">
-        <v>13061</v>
-      </c>
-      <c r="H43" s="9">
         <v>5706</v>
       </c>
+      <c r="H43" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I43" s="9" t="s">
         <v>31</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>49</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>50</v>
       </c>
@@ -2187,75 +2187,75 @@
         <v>35</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>31</v>
+      <c r="E45" s="9">
+        <v>4126</v>
       </c>
       <c r="F45" s="9">
-        <v>4126</v>
+        <v>954</v>
       </c>
       <c r="G45" s="9">
-        <v>954</v>
+        <v>23319</v>
       </c>
       <c r="H45" s="9">
-        <v>23319</v>
+        <v>23649</v>
       </c>
       <c r="I45" s="9">
-        <v>23649</v>
-      </c>
-      <c r="J45" s="9">
         <v>29951</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>31</v>
+      <c r="J45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="9">
+        <v>52789</v>
       </c>
       <c r="L45" s="9">
-        <v>52789</v>
+        <v>47442</v>
       </c>
       <c r="M45" s="9">
-        <v>47442</v>
+        <v>58808</v>
       </c>
       <c r="N45" s="9">
-        <v>58808</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>73666</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>2957909</v>
+        <v>2972533</v>
       </c>
       <c r="F46" s="13">
-        <v>2972533</v>
+        <v>2746904</v>
       </c>
       <c r="G46" s="13">
-        <v>2746904</v>
+        <v>2582037</v>
       </c>
       <c r="H46" s="13">
-        <v>2582037</v>
+        <v>3371917</v>
       </c>
       <c r="I46" s="13">
-        <v>3371917</v>
+        <v>3515001</v>
       </c>
       <c r="J46" s="13">
-        <v>3515001</v>
+        <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>0</v>
+        <v>2793021</v>
       </c>
       <c r="L46" s="13">
-        <v>2793021</v>
+        <v>2425663</v>
       </c>
       <c r="M46" s="13">
-        <v>2425663</v>
+        <v>2672142</v>
       </c>
       <c r="N46" s="13">
-        <v>2672142</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2607894</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2270,7 +2270,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2285,7 +2285,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2300,7 +2300,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>51</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2352,7 +2352,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>29</v>
       </c>
@@ -2363,11 +2363,11 @@
       <c r="E52" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0</v>
+      <c r="F52" s="9">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>31</v>
@@ -2391,7 +2391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>32</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>34</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>36</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>37</v>
       </c>
@@ -2517,37 +2517,37 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>22205</v>
+        <v>22151</v>
       </c>
       <c r="F56" s="9">
-        <v>22151</v>
+        <v>26343</v>
       </c>
       <c r="G56" s="9">
-        <v>26343</v>
+        <v>22858</v>
       </c>
       <c r="H56" s="9">
-        <v>22858</v>
+        <v>15030</v>
       </c>
       <c r="I56" s="9">
-        <v>15030</v>
+        <v>22578</v>
       </c>
       <c r="J56" s="9">
-        <v>22578</v>
+        <v>34903</v>
       </c>
       <c r="K56" s="9">
-        <v>34903</v>
+        <v>69741</v>
       </c>
       <c r="L56" s="9">
-        <v>69741</v>
+        <v>21326</v>
       </c>
       <c r="M56" s="9">
-        <v>21326</v>
+        <v>40949</v>
       </c>
       <c r="N56" s="9">
-        <v>40949</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>47348</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>38</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>39</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>40</v>
       </c>
@@ -2634,37 +2634,37 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>66679</v>
+        <v>76954</v>
       </c>
       <c r="F59" s="11">
-        <v>76954</v>
+        <v>98097</v>
       </c>
       <c r="G59" s="11">
-        <v>98097</v>
+        <v>79710</v>
       </c>
       <c r="H59" s="11">
-        <v>79710</v>
+        <v>34390</v>
       </c>
       <c r="I59" s="11">
-        <v>34390</v>
+        <v>60057</v>
       </c>
       <c r="J59" s="11">
-        <v>60057</v>
+        <v>51948</v>
       </c>
       <c r="K59" s="11">
-        <v>51948</v>
+        <v>24518</v>
       </c>
       <c r="L59" s="11">
-        <v>24518</v>
+        <v>75270</v>
       </c>
       <c r="M59" s="11">
-        <v>75270</v>
+        <v>39306</v>
       </c>
       <c r="N59" s="11">
-        <v>39306</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>53766</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>41</v>
       </c>
@@ -2673,13 +2673,13 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>19557</v>
+        <v>12256</v>
       </c>
       <c r="F60" s="9">
-        <v>12256</v>
+        <v>12541</v>
       </c>
       <c r="G60" s="9">
-        <v>12541</v>
+        <v>0</v>
       </c>
       <c r="H60" s="9">
         <v>0</v>
@@ -2691,19 +2691,19 @@
         <v>0</v>
       </c>
       <c r="K60" s="9">
-        <v>0</v>
+        <v>12312</v>
       </c>
       <c r="L60" s="9">
-        <v>12312</v>
+        <v>16881</v>
       </c>
       <c r="M60" s="9">
-        <v>16881</v>
+        <v>5632</v>
       </c>
       <c r="N60" s="9">
-        <v>5632</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>42</v>
       </c>
@@ -2712,37 +2712,37 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>240935</v>
+        <v>221271</v>
       </c>
       <c r="F61" s="11">
-        <v>221271</v>
+        <v>161212</v>
       </c>
       <c r="G61" s="11">
-        <v>161212</v>
+        <v>211714</v>
       </c>
       <c r="H61" s="11">
-        <v>211714</v>
+        <v>217442</v>
       </c>
       <c r="I61" s="11">
-        <v>217442</v>
+        <v>201026</v>
       </c>
       <c r="J61" s="11">
-        <v>201026</v>
+        <v>188950</v>
       </c>
       <c r="K61" s="11">
-        <v>188950</v>
+        <v>270402</v>
       </c>
       <c r="L61" s="11">
-        <v>270402</v>
+        <v>223447</v>
       </c>
       <c r="M61" s="11">
-        <v>223447</v>
+        <v>86710</v>
       </c>
       <c r="N61" s="11">
-        <v>86710</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>159616</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>43</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>44</v>
       </c>
@@ -2790,37 +2790,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>1807164</v>
+        <v>1317069</v>
       </c>
       <c r="F63" s="11">
-        <v>1317069</v>
+        <v>515707</v>
       </c>
       <c r="G63" s="11">
-        <v>515707</v>
+        <v>2246023</v>
       </c>
       <c r="H63" s="11">
-        <v>2246023</v>
+        <v>1205001</v>
       </c>
       <c r="I63" s="11">
-        <v>1205001</v>
+        <v>486290</v>
       </c>
       <c r="J63" s="11">
-        <v>486290</v>
+        <v>544220</v>
       </c>
       <c r="K63" s="11">
-        <v>544220</v>
+        <v>716308</v>
       </c>
       <c r="L63" s="11">
-        <v>716308</v>
+        <v>1223450</v>
       </c>
       <c r="M63" s="11">
-        <v>1223450</v>
+        <v>1300800</v>
       </c>
       <c r="N63" s="11">
-        <v>1300800</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1102430</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>46</v>
       </c>
@@ -2829,37 +2829,37 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>28947</v>
+        <v>14082</v>
       </c>
       <c r="F64" s="9">
-        <v>14082</v>
+        <v>24713</v>
       </c>
       <c r="G64" s="9">
-        <v>24713</v>
+        <v>9939</v>
       </c>
       <c r="H64" s="9">
-        <v>9939</v>
+        <v>7822</v>
       </c>
       <c r="I64" s="9">
-        <v>7822</v>
+        <v>30588</v>
       </c>
       <c r="J64" s="9">
-        <v>30588</v>
+        <v>43253</v>
       </c>
       <c r="K64" s="9">
-        <v>43253</v>
+        <v>19853</v>
       </c>
       <c r="L64" s="9">
-        <v>19853</v>
+        <v>36192</v>
       </c>
       <c r="M64" s="9">
-        <v>36192</v>
+        <v>28443</v>
       </c>
       <c r="N64" s="9">
-        <v>28443</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>47</v>
       </c>
@@ -2870,14 +2870,14 @@
       <c r="E65" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>31</v>
+      <c r="F65" s="11">
+        <v>0</v>
       </c>
       <c r="G65" s="11">
         <v>0</v>
       </c>
-      <c r="H65" s="11">
-        <v>0</v>
+      <c r="H65" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>31</v>
@@ -2898,7 +2898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>48</v>
       </c>
@@ -2906,18 +2906,18 @@
         <v>35</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>31</v>
+      <c r="E66" s="9">
+        <v>4190</v>
       </c>
       <c r="F66" s="9">
-        <v>4190</v>
+        <v>32645</v>
       </c>
       <c r="G66" s="9">
-        <v>32645</v>
-      </c>
-      <c r="H66" s="9">
         <v>8820</v>
       </c>
+      <c r="H66" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I66" s="9" t="s">
         <v>31</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>49</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>50</v>
       </c>
@@ -2984,75 +2984,75 @@
         <v>35</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>31</v>
+      <c r="E68" s="9">
+        <v>4314</v>
       </c>
       <c r="F68" s="9">
-        <v>4314</v>
+        <v>10222</v>
       </c>
       <c r="G68" s="9">
-        <v>10222</v>
+        <v>13107</v>
       </c>
       <c r="H68" s="9">
-        <v>13107</v>
+        <v>18785</v>
       </c>
       <c r="I68" s="9">
-        <v>18785</v>
+        <v>35670</v>
       </c>
       <c r="J68" s="9">
-        <v>35670</v>
+        <v>0</v>
       </c>
       <c r="K68" s="9">
         <v>0</v>
       </c>
       <c r="L68" s="9">
-        <v>0</v>
+        <v>-1457</v>
       </c>
       <c r="M68" s="9">
-        <v>-1457</v>
+        <v>63730</v>
       </c>
       <c r="N68" s="9">
-        <v>63730</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>58021</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>2185487</v>
+        <v>1672287</v>
       </c>
       <c r="F69" s="13">
-        <v>1672287</v>
+        <v>881480</v>
       </c>
       <c r="G69" s="13">
-        <v>881480</v>
+        <v>2592171</v>
       </c>
       <c r="H69" s="13">
-        <v>2592171</v>
+        <v>1498470</v>
       </c>
       <c r="I69" s="13">
-        <v>1498470</v>
+        <v>836209</v>
       </c>
       <c r="J69" s="13">
-        <v>836209</v>
+        <v>863274</v>
       </c>
       <c r="K69" s="13">
-        <v>863274</v>
+        <v>1113134</v>
       </c>
       <c r="L69" s="13">
-        <v>1113134</v>
+        <v>1595109</v>
       </c>
       <c r="M69" s="13">
-        <v>1595109</v>
+        <v>1565570</v>
       </c>
       <c r="N69" s="13">
-        <v>1565570</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1423321</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3067,7 +3067,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3082,7 +3082,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3097,7 +3097,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>53</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3149,7 +3149,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>29</v>
       </c>
@@ -3160,11 +3160,11 @@
       <c r="E75" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" s="9">
-        <v>0</v>
+      <c r="F75" s="9">
+        <v>0</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>31</v>
@@ -3188,7 +3188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>32</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>34</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>36</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>37</v>
       </c>
@@ -3314,37 +3314,37 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>22758</v>
+        <v>19449</v>
       </c>
       <c r="F79" s="9">
-        <v>19449</v>
+        <v>12082</v>
       </c>
       <c r="G79" s="9">
-        <v>12082</v>
+        <v>23329</v>
       </c>
       <c r="H79" s="9">
-        <v>23329</v>
+        <v>21693</v>
       </c>
       <c r="I79" s="9">
-        <v>21693</v>
+        <v>30793</v>
       </c>
       <c r="J79" s="9">
-        <v>30793</v>
+        <v>41149</v>
       </c>
       <c r="K79" s="9">
-        <v>41149</v>
+        <v>53197</v>
       </c>
       <c r="L79" s="9">
-        <v>53197</v>
+        <v>17206</v>
       </c>
       <c r="M79" s="9">
-        <v>17206</v>
+        <v>58162</v>
       </c>
       <c r="N79" s="9">
-        <v>58162</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29626</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>38</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>39</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>40</v>
       </c>
@@ -3431,37 +3431,37 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>67696</v>
+        <v>58521</v>
       </c>
       <c r="F82" s="11">
-        <v>58521</v>
+        <v>35472</v>
       </c>
       <c r="G82" s="11">
-        <v>35472</v>
+        <v>83601</v>
       </c>
       <c r="H82" s="11">
-        <v>83601</v>
+        <v>77642</v>
       </c>
       <c r="I82" s="11">
-        <v>77642</v>
+        <v>59610</v>
       </c>
       <c r="J82" s="11">
-        <v>59610</v>
+        <v>48420</v>
       </c>
       <c r="K82" s="11">
-        <v>48420</v>
+        <v>18548</v>
       </c>
       <c r="L82" s="11">
-        <v>18548</v>
+        <v>43481</v>
       </c>
       <c r="M82" s="11">
-        <v>43481</v>
+        <v>77451</v>
       </c>
       <c r="N82" s="11">
-        <v>77451</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>81415</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>41</v>
       </c>
@@ -3470,37 +3470,37 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>8764</v>
+        <v>7973</v>
       </c>
       <c r="F83" s="9">
-        <v>7973</v>
+        <v>4847</v>
       </c>
       <c r="G83" s="9">
-        <v>4847</v>
+        <v>7546</v>
       </c>
       <c r="H83" s="9">
-        <v>7546</v>
+        <v>5286</v>
       </c>
       <c r="I83" s="9">
-        <v>5286</v>
+        <v>5188</v>
       </c>
       <c r="J83" s="9">
-        <v>5188</v>
+        <v>2808</v>
       </c>
       <c r="K83" s="9">
-        <v>2808</v>
+        <v>8585</v>
       </c>
       <c r="L83" s="9">
-        <v>8585</v>
+        <v>6155</v>
       </c>
       <c r="M83" s="9">
-        <v>6155</v>
+        <v>6919</v>
       </c>
       <c r="N83" s="9">
-        <v>6919</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>42</v>
       </c>
@@ -3509,37 +3509,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>228769</v>
+        <v>201234</v>
       </c>
       <c r="F84" s="11">
-        <v>201234</v>
+        <v>133944</v>
       </c>
       <c r="G84" s="11">
-        <v>133944</v>
+        <v>214700</v>
       </c>
       <c r="H84" s="11">
-        <v>214700</v>
+        <v>225931</v>
       </c>
       <c r="I84" s="11">
-        <v>225931</v>
+        <v>225857</v>
       </c>
       <c r="J84" s="11">
-        <v>225857</v>
+        <v>229913</v>
       </c>
       <c r="K84" s="11">
-        <v>229913</v>
+        <v>258773</v>
       </c>
       <c r="L84" s="11">
-        <v>258773</v>
+        <v>-125894</v>
       </c>
       <c r="M84" s="11">
-        <v>-125894</v>
+        <v>207945</v>
       </c>
       <c r="N84" s="11">
-        <v>207945</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>200741</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>43</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>44</v>
       </c>
@@ -3587,37 +3587,37 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>1837891</v>
+        <v>1589929</v>
       </c>
       <c r="F86" s="11">
-        <v>1589929</v>
+        <v>821494</v>
       </c>
       <c r="G86" s="11">
-        <v>821494</v>
+        <v>1424550</v>
       </c>
       <c r="H86" s="11">
-        <v>1424550</v>
+        <v>993279</v>
       </c>
       <c r="I86" s="11">
-        <v>993279</v>
+        <v>909401</v>
       </c>
       <c r="J86" s="11">
-        <v>909401</v>
+        <v>825812</v>
       </c>
       <c r="K86" s="11">
-        <v>825812</v>
+        <v>1107253</v>
       </c>
       <c r="L86" s="11">
-        <v>1107253</v>
+        <v>1141162</v>
       </c>
       <c r="M86" s="11">
-        <v>1141162</v>
+        <v>1206722</v>
       </c>
       <c r="N86" s="11">
-        <v>1206722</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1736254</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>46</v>
       </c>
@@ -3626,37 +3626,37 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>17981</v>
+        <v>13324</v>
       </c>
       <c r="F87" s="9">
-        <v>13324</v>
+        <v>10653</v>
       </c>
       <c r="G87" s="9">
-        <v>10653</v>
+        <v>21262</v>
       </c>
       <c r="H87" s="9">
-        <v>21262</v>
+        <v>19071</v>
       </c>
       <c r="I87" s="9">
-        <v>19071</v>
+        <v>14652</v>
       </c>
       <c r="J87" s="9">
-        <v>14652</v>
+        <v>15028</v>
       </c>
       <c r="K87" s="9">
-        <v>15028</v>
+        <v>15361</v>
       </c>
       <c r="L87" s="9">
-        <v>15361</v>
+        <v>10405</v>
       </c>
       <c r="M87" s="9">
-        <v>10405</v>
+        <v>23747</v>
       </c>
       <c r="N87" s="9">
-        <v>23747</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19495</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>47</v>
       </c>
@@ -3667,14 +3667,14 @@
       <c r="E88" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F88" s="11" t="s">
-        <v>31</v>
+      <c r="F88" s="11">
+        <v>0</v>
       </c>
       <c r="G88" s="11">
         <v>0</v>
       </c>
-      <c r="H88" s="11">
-        <v>0</v>
+      <c r="H88" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>31</v>
@@ -3695,7 +3695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>48</v>
       </c>
@@ -3703,17 +3703,17 @@
         <v>35</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>31</v>
+      <c r="E89" s="9">
+        <v>0</v>
       </c>
       <c r="F89" s="9">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="G89" s="9">
-        <v>40000</v>
-      </c>
-      <c r="H89" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>31</v>
@@ -3734,7 +3734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>49</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>50</v>
       </c>
@@ -3781,75 +3781,75 @@
         <v>35</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>31</v>
+      <c r="E91" s="9">
+        <v>7486</v>
       </c>
       <c r="F91" s="9">
-        <v>7486</v>
+        <v>3549</v>
       </c>
       <c r="G91" s="9">
-        <v>3549</v>
+        <v>12803</v>
       </c>
       <c r="H91" s="9">
-        <v>12803</v>
+        <v>12483</v>
       </c>
       <c r="I91" s="9">
-        <v>12483</v>
+        <v>6612</v>
       </c>
       <c r="J91" s="9">
-        <v>6612</v>
+        <v>6220</v>
       </c>
       <c r="K91" s="9">
-        <v>6220</v>
+        <v>5347</v>
       </c>
       <c r="L91" s="9">
-        <v>5347</v>
+        <v>39819</v>
       </c>
       <c r="M91" s="9">
-        <v>39819</v>
+        <v>48872</v>
       </c>
       <c r="N91" s="9">
-        <v>48872</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64740</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>2183859</v>
+        <v>1897916</v>
       </c>
       <c r="F92" s="13">
-        <v>1897916</v>
+        <v>1062041</v>
       </c>
       <c r="G92" s="13">
-        <v>1062041</v>
+        <v>1787791</v>
       </c>
       <c r="H92" s="13">
-        <v>1787791</v>
+        <v>1355385</v>
       </c>
       <c r="I92" s="13">
-        <v>1355385</v>
+        <v>1252113</v>
       </c>
       <c r="J92" s="13">
-        <v>1252113</v>
+        <v>1169350</v>
       </c>
       <c r="K92" s="13">
-        <v>1169350</v>
+        <v>1467064</v>
       </c>
       <c r="L92" s="13">
-        <v>1467064</v>
+        <v>1132334</v>
       </c>
       <c r="M92" s="13">
-        <v>1132334</v>
+        <v>1629818</v>
       </c>
       <c r="N92" s="13">
-        <v>1629818</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2136696</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3864,7 +3864,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3879,7 +3879,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3894,7 +3894,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>54</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3946,7 +3946,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>29</v>
       </c>
@@ -3957,11 +3957,11 @@
       <c r="E98" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F98" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" s="9">
-        <v>0</v>
+      <c r="F98" s="9">
+        <v>0</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>31</v>
@@ -3985,7 +3985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>32</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>34</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>36</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>37</v>
       </c>
@@ -4111,37 +4111,37 @@
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9">
-        <v>27695</v>
+        <v>30397</v>
       </c>
       <c r="F102" s="9">
-        <v>30397</v>
+        <v>44658</v>
       </c>
       <c r="G102" s="9">
-        <v>44658</v>
+        <v>44187</v>
       </c>
       <c r="H102" s="9">
-        <v>44187</v>
+        <v>37524</v>
       </c>
       <c r="I102" s="9">
-        <v>37524</v>
+        <v>29309</v>
       </c>
       <c r="J102" s="9">
-        <v>29309</v>
+        <v>23063</v>
       </c>
       <c r="K102" s="9">
-        <v>23063</v>
+        <v>39607</v>
       </c>
       <c r="L102" s="9">
-        <v>39607</v>
+        <v>43727</v>
       </c>
       <c r="M102" s="9">
-        <v>43727</v>
+        <v>26514</v>
       </c>
       <c r="N102" s="9">
-        <v>26514</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>38</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>39</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>40</v>
       </c>
@@ -4228,37 +4228,37 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>29886</v>
+        <v>48318</v>
       </c>
       <c r="F105" s="11">
-        <v>48318</v>
+        <v>110944</v>
       </c>
       <c r="G105" s="11">
-        <v>110944</v>
+        <v>107053</v>
       </c>
       <c r="H105" s="11">
-        <v>107053</v>
+        <v>63800</v>
       </c>
       <c r="I105" s="11">
-        <v>63800</v>
+        <v>64247</v>
       </c>
       <c r="J105" s="11">
-        <v>64247</v>
+        <v>67775</v>
       </c>
       <c r="K105" s="11">
-        <v>67775</v>
+        <v>73745</v>
       </c>
       <c r="L105" s="11">
-        <v>73745</v>
+        <v>105534</v>
       </c>
       <c r="M105" s="11">
-        <v>105534</v>
+        <v>67389</v>
       </c>
       <c r="N105" s="11">
-        <v>67389</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39740</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>41</v>
       </c>
@@ -4267,37 +4267,37 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>13233</v>
+        <v>17516</v>
       </c>
       <c r="F106" s="9">
-        <v>17516</v>
+        <v>25210</v>
       </c>
       <c r="G106" s="9">
-        <v>25210</v>
+        <v>17664</v>
       </c>
       <c r="H106" s="9">
-        <v>17664</v>
+        <v>12378</v>
       </c>
       <c r="I106" s="9">
-        <v>12378</v>
+        <v>7190</v>
       </c>
       <c r="J106" s="9">
-        <v>7190</v>
+        <v>4382</v>
       </c>
       <c r="K106" s="9">
-        <v>4382</v>
+        <v>8109</v>
       </c>
       <c r="L106" s="9">
-        <v>8109</v>
+        <v>18835</v>
       </c>
       <c r="M106" s="9">
-        <v>18835</v>
+        <v>17548</v>
       </c>
       <c r="N106" s="9">
-        <v>17548</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13123</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>42</v>
       </c>
@@ -4306,37 +4306,37 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>682549</v>
+        <v>702585</v>
       </c>
       <c r="F107" s="11">
-        <v>702585</v>
+        <v>729854</v>
       </c>
       <c r="G107" s="11">
-        <v>729854</v>
+        <v>726868</v>
       </c>
       <c r="H107" s="11">
-        <v>726868</v>
+        <v>718379</v>
       </c>
       <c r="I107" s="11">
-        <v>718379</v>
+        <v>693548</v>
       </c>
       <c r="J107" s="11">
-        <v>693548</v>
+        <v>652585</v>
       </c>
       <c r="K107" s="11">
-        <v>652585</v>
+        <v>650786</v>
       </c>
       <c r="L107" s="11">
-        <v>650786</v>
+        <v>1013555</v>
       </c>
       <c r="M107" s="11">
-        <v>1013555</v>
+        <v>612954</v>
       </c>
       <c r="N107" s="11">
-        <v>612954</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>571829</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>43</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>44</v>
       </c>
@@ -4384,37 +4384,37 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>2188737</v>
+        <v>1915877</v>
       </c>
       <c r="F109" s="11">
-        <v>1915877</v>
+        <v>1610090</v>
       </c>
       <c r="G109" s="11">
-        <v>1610090</v>
+        <v>2431563</v>
       </c>
       <c r="H109" s="11">
-        <v>2431563</v>
+        <v>2643285</v>
       </c>
       <c r="I109" s="11">
-        <v>2643285</v>
+        <v>2220174</v>
       </c>
       <c r="J109" s="11">
-        <v>2220174</v>
+        <v>1938582</v>
       </c>
       <c r="K109" s="11">
-        <v>1938582</v>
+        <v>1547637</v>
       </c>
       <c r="L109" s="11">
-        <v>1547637</v>
+        <v>1629925</v>
       </c>
       <c r="M109" s="11">
-        <v>1629925</v>
+        <v>1721003</v>
       </c>
       <c r="N109" s="11">
-        <v>1721003</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1087179</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>46</v>
       </c>
@@ -4423,37 +4423,37 @@
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
-        <v>17438</v>
+        <v>18196</v>
       </c>
       <c r="F110" s="9">
-        <v>18196</v>
+        <v>32256</v>
       </c>
       <c r="G110" s="9">
-        <v>32256</v>
+        <v>20933</v>
       </c>
       <c r="H110" s="9">
-        <v>20933</v>
+        <v>9684</v>
       </c>
       <c r="I110" s="9">
-        <v>9684</v>
+        <v>25620</v>
       </c>
       <c r="J110" s="9">
-        <v>25620</v>
+        <v>53845</v>
       </c>
       <c r="K110" s="9">
-        <v>53845</v>
+        <v>58337</v>
       </c>
       <c r="L110" s="9">
-        <v>58337</v>
+        <v>84124</v>
       </c>
       <c r="M110" s="9">
-        <v>84124</v>
+        <v>88820</v>
       </c>
       <c r="N110" s="9">
-        <v>88820</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>71465</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>47</v>
       </c>
@@ -4464,14 +4464,14 @@
       <c r="E111" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F111" s="11" t="s">
-        <v>31</v>
+      <c r="F111" s="11">
+        <v>0</v>
       </c>
       <c r="G111" s="11">
         <v>0</v>
       </c>
-      <c r="H111" s="11">
-        <v>0</v>
+      <c r="H111" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I111" s="11" t="s">
         <v>31</v>
@@ -4492,7 +4492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>48</v>
       </c>
@@ -4501,17 +4501,17 @@
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9">
-        <v>8871</v>
+        <v>13061</v>
       </c>
       <c r="F112" s="9">
-        <v>13061</v>
+        <v>5706</v>
       </c>
       <c r="G112" s="9">
-        <v>5706</v>
-      </c>
-      <c r="H112" s="9">
         <v>14526</v>
       </c>
+      <c r="H112" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I112" s="9" t="s">
         <v>31</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>49</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>50</v>
       </c>
@@ -4579,74 +4579,74 @@
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9">
-        <v>19818</v>
+        <v>954</v>
       </c>
       <c r="F114" s="9">
-        <v>954</v>
+        <v>23319</v>
       </c>
       <c r="G114" s="9">
-        <v>23319</v>
+        <v>23649</v>
       </c>
       <c r="H114" s="9">
-        <v>23649</v>
+        <v>29951</v>
       </c>
       <c r="I114" s="9">
-        <v>29951</v>
+        <v>59009</v>
       </c>
       <c r="J114" s="9">
-        <v>59009</v>
+        <v>52789</v>
       </c>
       <c r="K114" s="9">
-        <v>52789</v>
+        <v>47442</v>
       </c>
       <c r="L114" s="9">
-        <v>47442</v>
+        <v>6166</v>
       </c>
       <c r="M114" s="9">
-        <v>6166</v>
+        <v>73666</v>
       </c>
       <c r="N114" s="9">
-        <v>73666</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>66947</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13">
-        <v>2988227</v>
+        <v>2746904</v>
       </c>
       <c r="F115" s="13">
-        <v>2746904</v>
+        <v>2582037</v>
       </c>
       <c r="G115" s="13">
-        <v>2582037</v>
+        <v>3386443</v>
       </c>
       <c r="H115" s="13">
-        <v>3386443</v>
+        <v>3515001</v>
       </c>
       <c r="I115" s="13">
-        <v>3515001</v>
+        <v>3099097</v>
       </c>
       <c r="J115" s="13">
-        <v>3099097</v>
+        <v>2793021</v>
       </c>
       <c r="K115" s="13">
-        <v>2793021</v>
+        <v>2425663</v>
       </c>
       <c r="L115" s="13">
-        <v>2425663</v>
+        <v>2901866</v>
       </c>
       <c r="M115" s="13">
-        <v>2901866</v>
+        <v>2607894</v>
       </c>
       <c r="N115" s="13">
-        <v>2607894</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1894519</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4661,7 +4661,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4676,7 +4676,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4691,7 +4691,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>55</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4743,7 +4743,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>29</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>32</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>34</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>36</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>37</v>
       </c>
@@ -4908,37 +4908,37 @@
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>1783</v>
+        <v>2101</v>
       </c>
       <c r="F125" s="9">
-        <v>2101</v>
+        <v>2660</v>
       </c>
       <c r="G125" s="9">
-        <v>2660</v>
+        <v>4104</v>
       </c>
       <c r="H125" s="9">
-        <v>4104</v>
+        <v>4675</v>
       </c>
       <c r="I125" s="9">
-        <v>4675</v>
-      </c>
-      <c r="J125" s="9">
         <v>4187</v>
       </c>
-      <c r="K125" s="9" t="s">
-        <v>31</v>
+      <c r="J125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K125" s="9">
+        <v>3708</v>
       </c>
       <c r="L125" s="9">
-        <v>3708</v>
+        <v>5966</v>
       </c>
       <c r="M125" s="9">
-        <v>5966</v>
+        <v>6882</v>
       </c>
       <c r="N125" s="9">
-        <v>6882</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>38</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>39</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>40</v>
       </c>
@@ -5025,37 +5025,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>2647</v>
+        <v>3570</v>
       </c>
       <c r="F128" s="11">
-        <v>3570</v>
+        <v>6737</v>
       </c>
       <c r="G128" s="11">
-        <v>6737</v>
+        <v>15693</v>
       </c>
       <c r="H128" s="11">
-        <v>15693</v>
+        <v>17455</v>
       </c>
       <c r="I128" s="11">
-        <v>17455</v>
-      </c>
-      <c r="J128" s="11">
         <v>11008</v>
       </c>
-      <c r="K128" s="11" t="s">
-        <v>31</v>
+      <c r="J128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K128" s="11">
+        <v>17353</v>
       </c>
       <c r="L128" s="11">
-        <v>17353</v>
+        <v>21971</v>
       </c>
       <c r="M128" s="11">
-        <v>21971</v>
+        <v>30062</v>
       </c>
       <c r="N128" s="11">
-        <v>30062</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>41</v>
       </c>
@@ -5064,37 +5064,37 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>804</v>
+        <v>5188</v>
       </c>
       <c r="F129" s="9">
-        <v>5188</v>
+        <v>7099</v>
       </c>
       <c r="G129" s="9">
-        <v>7099</v>
+        <v>10324</v>
       </c>
       <c r="H129" s="9">
-        <v>10324</v>
+        <v>7234</v>
       </c>
       <c r="I129" s="9">
-        <v>7234</v>
-      </c>
-      <c r="J129" s="9">
         <v>5069</v>
       </c>
-      <c r="K129" s="9" t="s">
-        <v>31</v>
+      <c r="J129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K129" s="9">
+        <v>1794</v>
       </c>
       <c r="L129" s="9">
-        <v>1794</v>
+        <v>10056</v>
       </c>
       <c r="M129" s="9">
-        <v>10056</v>
+        <v>24494</v>
       </c>
       <c r="N129" s="9">
-        <v>24494</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23037</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>42</v>
       </c>
@@ -5103,37 +5103,37 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>49176</v>
+        <v>54510</v>
       </c>
       <c r="F130" s="11">
-        <v>54510</v>
+        <v>64580</v>
       </c>
       <c r="G130" s="11">
-        <v>64580</v>
+        <v>72363</v>
       </c>
       <c r="H130" s="11">
-        <v>72363</v>
+        <v>83284</v>
       </c>
       <c r="I130" s="11">
-        <v>83284</v>
-      </c>
-      <c r="J130" s="11">
         <v>98303</v>
       </c>
-      <c r="K130" s="11" t="s">
-        <v>31</v>
+      <c r="J130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130" s="11">
+        <v>118026</v>
       </c>
       <c r="L130" s="11">
-        <v>118026</v>
+        <v>143410</v>
       </c>
       <c r="M130" s="11">
-        <v>143410</v>
+        <v>168142</v>
       </c>
       <c r="N130" s="11">
-        <v>168142</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>145042</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>43</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>44</v>
       </c>
@@ -5181,37 +5181,37 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>36911</v>
+        <v>42469</v>
       </c>
       <c r="F132" s="11">
-        <v>42469</v>
+        <v>46267</v>
       </c>
       <c r="G132" s="11">
-        <v>46267</v>
+        <v>46487</v>
       </c>
       <c r="H132" s="11">
-        <v>46487</v>
+        <v>83262</v>
       </c>
       <c r="I132" s="11">
-        <v>83262</v>
-      </c>
-      <c r="J132" s="11">
         <v>88187</v>
       </c>
-      <c r="K132" s="11" t="s">
-        <v>31</v>
+      <c r="J132" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K132" s="11">
+        <v>74000</v>
       </c>
       <c r="L132" s="11">
-        <v>74000</v>
+        <v>50203</v>
       </c>
       <c r="M132" s="11">
-        <v>50203</v>
+        <v>53926</v>
       </c>
       <c r="N132" s="11">
-        <v>53926</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>58962</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>46</v>
       </c>
@@ -5220,37 +5220,37 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>5678</v>
+        <v>22109</v>
       </c>
       <c r="F133" s="9">
-        <v>22109</v>
+        <v>23293</v>
       </c>
       <c r="G133" s="9">
-        <v>23293</v>
+        <v>44364</v>
       </c>
       <c r="H133" s="9">
-        <v>44364</v>
+        <v>34130</v>
       </c>
       <c r="I133" s="9">
-        <v>34130</v>
-      </c>
-      <c r="J133" s="9">
         <v>18021</v>
       </c>
-      <c r="K133" s="9" t="s">
-        <v>31</v>
+      <c r="J133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" s="9">
+        <v>197315</v>
       </c>
       <c r="L133" s="9">
-        <v>197315</v>
+        <v>200686</v>
       </c>
       <c r="M133" s="9">
-        <v>200686</v>
+        <v>289310</v>
       </c>
       <c r="N133" s="9">
-        <v>289310</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>315389</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>47</v>
       </c>
@@ -5264,11 +5264,11 @@
       <c r="F134" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G134" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H134" s="11">
-        <v>0</v>
+      <c r="G134" s="11">
+        <v>0</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I134" s="11" t="s">
         <v>31</v>
@@ -5289,7 +5289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>48</v>
       </c>
@@ -5297,18 +5297,18 @@
         <v>30</v>
       </c>
       <c r="D135" s="9"/>
-      <c r="E135" s="9" t="s">
-        <v>31</v>
+      <c r="E135" s="9">
+        <v>17295</v>
       </c>
       <c r="F135" s="9">
-        <v>17295</v>
+        <v>25887</v>
       </c>
       <c r="G135" s="9">
-        <v>25887</v>
-      </c>
-      <c r="H135" s="9">
         <v>48601</v>
       </c>
+      <c r="H135" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I135" s="9" t="s">
         <v>31</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>49</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>50</v>
       </c>
@@ -5375,75 +5375,75 @@
         <v>30</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>31</v>
+      <c r="E137" s="9">
+        <v>992</v>
       </c>
       <c r="F137" s="9">
-        <v>992</v>
+        <v>828</v>
       </c>
       <c r="G137" s="9">
-        <v>828</v>
+        <v>12386</v>
       </c>
       <c r="H137" s="9">
-        <v>12386</v>
+        <v>14649</v>
       </c>
       <c r="I137" s="9">
-        <v>14649</v>
-      </c>
-      <c r="J137" s="9">
         <v>22054</v>
       </c>
-      <c r="K137" s="9" t="s">
-        <v>31</v>
+      <c r="J137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="9">
+        <v>55727</v>
       </c>
       <c r="L137" s="9">
-        <v>55727</v>
+        <v>49598</v>
       </c>
       <c r="M137" s="9">
-        <v>49598</v>
+        <v>44063</v>
       </c>
       <c r="N137" s="9">
-        <v>44063</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>48091</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13">
-        <v>96999</v>
+        <v>148234</v>
       </c>
       <c r="F138" s="13">
-        <v>148234</v>
+        <v>177351</v>
       </c>
       <c r="G138" s="13">
-        <v>177351</v>
+        <v>254322</v>
       </c>
       <c r="H138" s="13">
-        <v>254322</v>
+        <v>244689</v>
       </c>
       <c r="I138" s="13">
-        <v>244689</v>
+        <v>246829</v>
       </c>
       <c r="J138" s="13">
-        <v>246829</v>
+        <v>0</v>
       </c>
       <c r="K138" s="13">
-        <v>0</v>
+        <v>467923</v>
       </c>
       <c r="L138" s="13">
-        <v>467923</v>
+        <v>481890</v>
       </c>
       <c r="M138" s="13">
-        <v>481890</v>
+        <v>616879</v>
       </c>
       <c r="N138" s="13">
-        <v>616879</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>614977</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -5458,7 +5458,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5473,7 +5473,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5488,7 +5488,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>56</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5540,7 +5540,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>29</v>
       </c>
@@ -5551,11 +5551,11 @@
       <c r="E144" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F144" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G144" s="9">
-        <v>0</v>
+      <c r="F144" s="9">
+        <v>0</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H144" s="9" t="s">
         <v>31</v>
@@ -5579,7 +5579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>32</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>34</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>36</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>37</v>
       </c>
@@ -5705,37 +5705,37 @@
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
-        <v>1805</v>
+        <v>2166</v>
       </c>
       <c r="F148" s="9">
-        <v>2166</v>
+        <v>2534</v>
       </c>
       <c r="G148" s="9">
-        <v>2534</v>
+        <v>2894</v>
       </c>
       <c r="H148" s="9">
-        <v>2894</v>
+        <v>1878</v>
       </c>
       <c r="I148" s="9">
-        <v>1878</v>
+        <v>3803</v>
       </c>
       <c r="J148" s="9">
-        <v>3803</v>
+        <v>5945</v>
       </c>
       <c r="K148" s="9">
-        <v>5945</v>
+        <v>9679</v>
       </c>
       <c r="L148" s="9">
-        <v>9679</v>
+        <v>3621</v>
       </c>
       <c r="M148" s="9">
-        <v>3621</v>
+        <v>6964</v>
       </c>
       <c r="N148" s="9">
-        <v>6964</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8996</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>38</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>39</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>40</v>
       </c>
@@ -5822,37 +5822,37 @@
       </c>
       <c r="D151" s="11"/>
       <c r="E151" s="11">
-        <v>7269</v>
+        <v>11015</v>
       </c>
       <c r="F151" s="11">
-        <v>11015</v>
+        <v>13924</v>
       </c>
       <c r="G151" s="11">
-        <v>13924</v>
+        <v>14612</v>
       </c>
       <c r="H151" s="11">
-        <v>14612</v>
+        <v>6577</v>
       </c>
       <c r="I151" s="11">
-        <v>6577</v>
+        <v>17234</v>
       </c>
       <c r="J151" s="11">
-        <v>17234</v>
+        <v>14407</v>
       </c>
       <c r="K151" s="11">
-        <v>14407</v>
+        <v>9523</v>
       </c>
       <c r="L151" s="11">
-        <v>9523</v>
+        <v>20641</v>
       </c>
       <c r="M151" s="11">
-        <v>20641</v>
+        <v>12518</v>
       </c>
       <c r="N151" s="11">
-        <v>12518</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17205</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>41</v>
       </c>
@@ -5861,16 +5861,16 @@
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9">
-        <v>7751</v>
+        <v>5086</v>
       </c>
       <c r="F152" s="9">
-        <v>5086</v>
+        <v>5204</v>
       </c>
       <c r="G152" s="9">
-        <v>5204</v>
+        <v>1</v>
       </c>
       <c r="H152" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" s="9">
         <v>0</v>
@@ -5879,19 +5879,19 @@
         <v>0</v>
       </c>
       <c r="K152" s="9">
-        <v>0</v>
+        <v>16622</v>
       </c>
       <c r="L152" s="9">
-        <v>16622</v>
+        <v>22303</v>
       </c>
       <c r="M152" s="9">
-        <v>22303</v>
+        <v>7581</v>
       </c>
       <c r="N152" s="9">
-        <v>7581</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>42</v>
       </c>
@@ -5900,37 +5900,37 @@
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
-        <v>24914</v>
+        <v>32238</v>
       </c>
       <c r="F153" s="11">
-        <v>32238</v>
+        <v>24195</v>
       </c>
       <c r="G153" s="11">
-        <v>24195</v>
+        <v>38847</v>
       </c>
       <c r="H153" s="11">
-        <v>38847</v>
+        <v>50796</v>
       </c>
       <c r="I153" s="11">
-        <v>50796</v>
+        <v>62294</v>
       </c>
       <c r="J153" s="11">
-        <v>62294</v>
+        <v>56292</v>
       </c>
       <c r="K153" s="11">
-        <v>56292</v>
+        <v>85137</v>
       </c>
       <c r="L153" s="11">
-        <v>85137</v>
+        <v>64846</v>
       </c>
       <c r="M153" s="11">
-        <v>64846</v>
+        <v>25306</v>
       </c>
       <c r="N153" s="11">
-        <v>25306</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>48066</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>43</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>44</v>
       </c>
@@ -5978,37 +5978,37 @@
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
-        <v>38579</v>
+        <v>46987</v>
       </c>
       <c r="F155" s="11">
-        <v>46987</v>
+        <v>25700</v>
       </c>
       <c r="G155" s="11">
-        <v>25700</v>
+        <v>94775</v>
       </c>
       <c r="H155" s="11">
-        <v>94775</v>
+        <v>45412</v>
       </c>
       <c r="I155" s="11">
-        <v>45412</v>
+        <v>23189</v>
       </c>
       <c r="J155" s="11">
-        <v>23189</v>
+        <v>23168</v>
       </c>
       <c r="K155" s="11">
-        <v>23168</v>
+        <v>26931</v>
       </c>
       <c r="L155" s="11">
-        <v>26931</v>
+        <v>50015</v>
       </c>
       <c r="M155" s="11">
-        <v>50015</v>
+        <v>45034</v>
       </c>
       <c r="N155" s="11">
-        <v>45034</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>41406</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>46</v>
       </c>
@@ -6017,37 +6017,37 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
-        <v>32929</v>
+        <v>18007</v>
       </c>
       <c r="F156" s="9">
-        <v>18007</v>
+        <v>35546</v>
       </c>
       <c r="G156" s="9">
-        <v>35546</v>
+        <v>20633</v>
       </c>
       <c r="H156" s="9">
-        <v>20633</v>
+        <v>16665</v>
       </c>
       <c r="I156" s="9">
-        <v>16665</v>
+        <v>84733</v>
       </c>
       <c r="J156" s="9">
-        <v>84733</v>
+        <v>177721</v>
       </c>
       <c r="K156" s="9">
-        <v>177721</v>
+        <v>56888</v>
       </c>
       <c r="L156" s="9">
-        <v>56888</v>
+        <v>118031</v>
       </c>
       <c r="M156" s="9">
-        <v>118031</v>
+        <v>110313</v>
       </c>
       <c r="N156" s="9">
-        <v>110313</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9089</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>47</v>
       </c>
@@ -6058,14 +6058,14 @@
       <c r="E157" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F157" s="11" t="s">
-        <v>31</v>
+      <c r="F157" s="11">
+        <v>0</v>
       </c>
       <c r="G157" s="11">
         <v>0</v>
       </c>
-      <c r="H157" s="11">
-        <v>0</v>
+      <c r="H157" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I157" s="11" t="s">
         <v>31</v>
@@ -6086,7 +6086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>48</v>
       </c>
@@ -6094,17 +6094,17 @@
         <v>30</v>
       </c>
       <c r="D158" s="9"/>
-      <c r="E158" s="9" t="s">
-        <v>31</v>
+      <c r="E158" s="9">
+        <v>8592</v>
       </c>
       <c r="F158" s="9">
-        <v>8592</v>
+        <v>156545</v>
       </c>
       <c r="G158" s="9">
-        <v>156545</v>
-      </c>
-      <c r="H158" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I158" s="9" t="s">
         <v>31</v>
@@ -6125,7 +6125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>49</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>50</v>
       </c>
@@ -6172,75 +6172,75 @@
         <v>30</v>
       </c>
       <c r="D160" s="9"/>
-      <c r="E160" s="9" t="s">
-        <v>31</v>
+      <c r="E160" s="9">
+        <v>2943</v>
       </c>
       <c r="F160" s="9">
-        <v>2943</v>
+        <v>9029</v>
       </c>
       <c r="G160" s="9">
-        <v>9029</v>
+        <v>11666</v>
       </c>
       <c r="H160" s="9">
-        <v>11666</v>
+        <v>15175</v>
       </c>
       <c r="I160" s="9">
-        <v>15175</v>
+        <v>50971</v>
       </c>
       <c r="J160" s="9">
-        <v>50971</v>
+        <v>-613</v>
       </c>
       <c r="K160" s="9">
-        <v>-613</v>
+        <v>1</v>
       </c>
       <c r="L160" s="9">
-        <v>1</v>
+        <v>-1305</v>
       </c>
       <c r="M160" s="9">
-        <v>-1305</v>
+        <v>15251</v>
       </c>
       <c r="N160" s="9">
-        <v>15251</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18551</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13">
-        <v>113247</v>
+        <v>127034</v>
       </c>
       <c r="F161" s="13">
-        <v>127034</v>
+        <v>272677</v>
       </c>
       <c r="G161" s="13">
-        <v>272677</v>
+        <v>183428</v>
       </c>
       <c r="H161" s="13">
-        <v>183428</v>
+        <v>136503</v>
       </c>
       <c r="I161" s="13">
-        <v>136503</v>
+        <v>242224</v>
       </c>
       <c r="J161" s="13">
-        <v>242224</v>
+        <v>276920</v>
       </c>
       <c r="K161" s="13">
-        <v>276920</v>
+        <v>204781</v>
       </c>
       <c r="L161" s="13">
-        <v>204781</v>
+        <v>278152</v>
       </c>
       <c r="M161" s="13">
-        <v>278152</v>
+        <v>222967</v>
       </c>
       <c r="N161" s="13">
-        <v>222967</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>143313</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -6255,7 +6255,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -6270,7 +6270,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -6285,7 +6285,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B165" s="7" t="s">
         <v>57</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -6337,7 +6337,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>29</v>
       </c>
@@ -6348,11 +6348,11 @@
       <c r="E167" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F167" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G167" s="9">
-        <v>0</v>
+      <c r="F167" s="9">
+        <v>0</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H167" s="9" t="s">
         <v>31</v>
@@ -6376,7 +6376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>32</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>34</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>36</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>37</v>
       </c>
@@ -6502,37 +6502,37 @@
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9">
-        <v>1487</v>
+        <v>1607</v>
       </c>
       <c r="F171" s="9">
-        <v>1607</v>
+        <v>1090</v>
       </c>
       <c r="G171" s="9">
-        <v>1090</v>
+        <v>2323</v>
       </c>
       <c r="H171" s="9">
-        <v>2323</v>
+        <v>2366</v>
       </c>
       <c r="I171" s="9">
-        <v>2366</v>
+        <v>3958</v>
       </c>
       <c r="J171" s="9">
-        <v>3958</v>
+        <v>6269</v>
       </c>
       <c r="K171" s="9">
-        <v>6269</v>
+        <v>7421</v>
       </c>
       <c r="L171" s="9">
-        <v>7421</v>
+        <v>2705</v>
       </c>
       <c r="M171" s="9">
-        <v>2705</v>
+        <v>9490</v>
       </c>
       <c r="N171" s="9">
-        <v>9490</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>38</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>39</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>40</v>
       </c>
@@ -6619,37 +6619,37 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
-        <v>6346</v>
+        <v>7848</v>
       </c>
       <c r="F174" s="11">
-        <v>7848</v>
+        <v>4968</v>
       </c>
       <c r="G174" s="11">
-        <v>4968</v>
+        <v>12850</v>
       </c>
       <c r="H174" s="11">
-        <v>12850</v>
+        <v>13024</v>
       </c>
       <c r="I174" s="11">
-        <v>13024</v>
+        <v>13149</v>
       </c>
       <c r="J174" s="11">
-        <v>13149</v>
+        <v>12147</v>
       </c>
       <c r="K174" s="11">
-        <v>12147</v>
+        <v>4905</v>
       </c>
       <c r="L174" s="11">
-        <v>4905</v>
+        <v>12549</v>
       </c>
       <c r="M174" s="11">
-        <v>12549</v>
+        <v>22480</v>
       </c>
       <c r="N174" s="11">
-        <v>22480</v>
-      </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24948</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>41</v>
       </c>
@@ -6658,37 +6658,37 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
-        <v>3367</v>
+        <v>3175</v>
       </c>
       <c r="F175" s="9">
-        <v>3175</v>
+        <v>1979</v>
       </c>
       <c r="G175" s="9">
-        <v>1979</v>
+        <v>3091</v>
       </c>
       <c r="H175" s="9">
-        <v>3091</v>
+        <v>2165</v>
       </c>
       <c r="I175" s="9">
-        <v>2165</v>
+        <v>2124</v>
       </c>
       <c r="J175" s="9">
-        <v>2124</v>
+        <v>1151</v>
       </c>
       <c r="K175" s="9">
-        <v>1151</v>
+        <v>8360</v>
       </c>
       <c r="L175" s="9">
-        <v>8360</v>
+        <v>7865</v>
       </c>
       <c r="M175" s="9">
-        <v>7865</v>
+        <v>9038</v>
       </c>
       <c r="N175" s="9">
-        <v>9038</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5809</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>42</v>
       </c>
@@ -6697,37 +6697,37 @@
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11">
-        <v>19580</v>
+        <v>22168</v>
       </c>
       <c r="F176" s="11">
-        <v>22168</v>
+        <v>16412</v>
       </c>
       <c r="G176" s="11">
-        <v>16412</v>
+        <v>27926</v>
       </c>
       <c r="H176" s="11">
-        <v>27926</v>
+        <v>35777</v>
       </c>
       <c r="I176" s="11">
-        <v>35777</v>
+        <v>52400</v>
       </c>
       <c r="J176" s="11">
-        <v>52400</v>
+        <v>46463</v>
       </c>
       <c r="K176" s="11">
-        <v>46463</v>
+        <v>59393</v>
       </c>
       <c r="L176" s="11">
-        <v>59393</v>
+        <v>38848</v>
       </c>
       <c r="M176" s="11">
-        <v>38848</v>
+        <v>48406</v>
       </c>
       <c r="N176" s="11">
-        <v>48406</v>
-      </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+        <v>49483</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>43</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>44</v>
       </c>
@@ -6775,37 +6775,37 @@
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11">
-        <v>33021</v>
+        <v>43189</v>
       </c>
       <c r="F178" s="11">
-        <v>43189</v>
+        <v>25480</v>
       </c>
       <c r="G178" s="11">
-        <v>25480</v>
+        <v>58000</v>
       </c>
       <c r="H178" s="11">
-        <v>58000</v>
+        <v>40487</v>
       </c>
       <c r="I178" s="11">
-        <v>40487</v>
+        <v>38669</v>
       </c>
       <c r="J178" s="11">
-        <v>38669</v>
+        <v>21875</v>
       </c>
       <c r="K178" s="11">
-        <v>21875</v>
+        <v>54827</v>
       </c>
       <c r="L178" s="11">
-        <v>54827</v>
+        <v>37339</v>
       </c>
       <c r="M178" s="11">
-        <v>37339</v>
+        <v>39998</v>
       </c>
       <c r="N178" s="11">
-        <v>39998</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>46</v>
       </c>
@@ -6814,37 +6814,37 @@
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
-        <v>16498</v>
+        <v>16823</v>
       </c>
       <c r="F179" s="9">
-        <v>16823</v>
+        <v>14475</v>
       </c>
       <c r="G179" s="9">
-        <v>14475</v>
+        <v>30867</v>
       </c>
       <c r="H179" s="9">
-        <v>30867</v>
+        <v>32774</v>
       </c>
       <c r="I179" s="9">
-        <v>32774</v>
+        <v>33970</v>
       </c>
       <c r="J179" s="9">
-        <v>33970</v>
+        <v>49190</v>
       </c>
       <c r="K179" s="9">
-        <v>49190</v>
+        <v>53517</v>
       </c>
       <c r="L179" s="9">
-        <v>53517</v>
+        <v>29407</v>
       </c>
       <c r="M179" s="9">
-        <v>29407</v>
+        <v>84234</v>
       </c>
       <c r="N179" s="9">
-        <v>84234</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>69350</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>47</v>
       </c>
@@ -6855,14 +6855,14 @@
       <c r="E180" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F180" s="11" t="s">
-        <v>31</v>
+      <c r="F180" s="11">
+        <v>0</v>
       </c>
       <c r="G180" s="11">
         <v>0</v>
       </c>
-      <c r="H180" s="11">
-        <v>0</v>
+      <c r="H180" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I180" s="11" t="s">
         <v>31</v>
@@ -6883,7 +6883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>48</v>
       </c>
@@ -6891,17 +6891,17 @@
         <v>30</v>
       </c>
       <c r="D181" s="9"/>
-      <c r="E181" s="9" t="s">
-        <v>31</v>
+      <c r="E181" s="9">
+        <v>0</v>
       </c>
       <c r="F181" s="9">
-        <v>0</v>
+        <v>133831</v>
       </c>
       <c r="G181" s="9">
-        <v>133831</v>
-      </c>
-      <c r="H181" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I181" s="9" t="s">
         <v>31</v>
@@ -6922,7 +6922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>49</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>50</v>
       </c>
@@ -6969,75 +6969,75 @@
         <v>30</v>
       </c>
       <c r="D183" s="9"/>
-      <c r="E183" s="9" t="s">
-        <v>31</v>
+      <c r="E183" s="9">
+        <v>3107</v>
       </c>
       <c r="F183" s="9">
-        <v>3107</v>
+        <v>916</v>
       </c>
       <c r="G183" s="9">
-        <v>916</v>
+        <v>9403</v>
       </c>
       <c r="H183" s="9">
-        <v>9403</v>
+        <v>7770</v>
       </c>
       <c r="I183" s="9">
-        <v>7770</v>
+        <v>8603</v>
       </c>
       <c r="J183" s="9">
-        <v>8603</v>
+        <v>8082</v>
       </c>
       <c r="K183" s="9">
-        <v>8082</v>
+        <v>6130</v>
       </c>
       <c r="L183" s="9">
-        <v>6130</v>
+        <v>5857</v>
       </c>
       <c r="M183" s="9">
-        <v>5857</v>
+        <v>11223</v>
       </c>
       <c r="N183" s="9">
-        <v>11223</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13">
-        <v>80299</v>
+        <v>97917</v>
       </c>
       <c r="F184" s="13">
-        <v>97917</v>
+        <v>199151</v>
       </c>
       <c r="G184" s="13">
-        <v>199151</v>
+        <v>144460</v>
       </c>
       <c r="H184" s="13">
-        <v>144460</v>
+        <v>134363</v>
       </c>
       <c r="I184" s="13">
-        <v>134363</v>
+        <v>152873</v>
       </c>
       <c r="J184" s="13">
-        <v>152873</v>
+        <v>145177</v>
       </c>
       <c r="K184" s="13">
-        <v>145177</v>
+        <v>194553</v>
       </c>
       <c r="L184" s="13">
-        <v>194553</v>
+        <v>134570</v>
       </c>
       <c r="M184" s="13">
-        <v>134570</v>
+        <v>224869</v>
       </c>
       <c r="N184" s="13">
-        <v>224869</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+        <v>217864</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -7052,7 +7052,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -7067,7 +7067,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -7082,7 +7082,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B188" s="7" t="s">
         <v>58</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -7134,7 +7134,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>29</v>
       </c>
@@ -7145,11 +7145,11 @@
       <c r="E190" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F190" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G190" s="9">
-        <v>0</v>
+      <c r="F190" s="9">
+        <v>0</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H190" s="9" t="s">
         <v>31</v>
@@ -7173,7 +7173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>32</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>34</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>36</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>37</v>
       </c>
@@ -7299,37 +7299,37 @@
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9">
-        <v>2101</v>
+        <v>2660</v>
       </c>
       <c r="F194" s="9">
-        <v>2660</v>
+        <v>4104</v>
       </c>
       <c r="G194" s="9">
-        <v>4104</v>
+        <v>4675</v>
       </c>
       <c r="H194" s="9">
-        <v>4675</v>
+        <v>4187</v>
       </c>
       <c r="I194" s="9">
-        <v>4187</v>
+        <v>4032</v>
       </c>
       <c r="J194" s="9">
-        <v>4032</v>
+        <v>3708</v>
       </c>
       <c r="K194" s="9">
-        <v>3708</v>
+        <v>5966</v>
       </c>
       <c r="L194" s="9">
-        <v>5966</v>
+        <v>6882</v>
       </c>
       <c r="M194" s="9">
-        <v>6882</v>
+        <v>4356</v>
       </c>
       <c r="N194" s="9">
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8067</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>38</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>39</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>40</v>
       </c>
@@ -7416,37 +7416,37 @@
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
-        <v>3570</v>
+        <v>6737</v>
       </c>
       <c r="F197" s="11">
-        <v>6737</v>
+        <v>15693</v>
       </c>
       <c r="G197" s="11">
-        <v>15693</v>
+        <v>17455</v>
       </c>
       <c r="H197" s="11">
-        <v>17455</v>
+        <v>11008</v>
       </c>
       <c r="I197" s="11">
-        <v>11008</v>
+        <v>15093</v>
       </c>
       <c r="J197" s="11">
-        <v>15093</v>
+        <v>17353</v>
       </c>
       <c r="K197" s="11">
-        <v>17353</v>
+        <v>21971</v>
       </c>
       <c r="L197" s="11">
-        <v>21971</v>
+        <v>30063</v>
       </c>
       <c r="M197" s="11">
-        <v>30063</v>
+        <v>20100</v>
       </c>
       <c r="N197" s="11">
-        <v>20100</v>
-      </c>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12357</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>41</v>
       </c>
@@ -7455,37 +7455,37 @@
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9">
-        <v>5188</v>
+        <v>7099</v>
       </c>
       <c r="F198" s="9">
-        <v>7099</v>
+        <v>10324</v>
       </c>
       <c r="G198" s="9">
-        <v>10324</v>
+        <v>7234</v>
       </c>
       <c r="H198" s="9">
-        <v>7234</v>
+        <v>5069</v>
       </c>
       <c r="I198" s="9">
-        <v>5069</v>
+        <v>2945</v>
       </c>
       <c r="J198" s="9">
-        <v>2945</v>
+        <v>1794</v>
       </c>
       <c r="K198" s="9">
-        <v>1794</v>
+        <v>10056</v>
       </c>
       <c r="L198" s="9">
-        <v>10056</v>
+        <v>24494</v>
       </c>
       <c r="M198" s="9">
-        <v>24494</v>
+        <v>23037</v>
       </c>
       <c r="N198" s="9">
-        <v>23037</v>
-      </c>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17228</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>42</v>
       </c>
@@ -7494,37 +7494,37 @@
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="11">
-        <v>54510</v>
+        <v>64580</v>
       </c>
       <c r="F199" s="11">
-        <v>64580</v>
+        <v>72363</v>
       </c>
       <c r="G199" s="11">
-        <v>72363</v>
+        <v>83284</v>
       </c>
       <c r="H199" s="11">
-        <v>83284</v>
+        <v>98303</v>
       </c>
       <c r="I199" s="11">
-        <v>98303</v>
+        <v>108197</v>
       </c>
       <c r="J199" s="11">
-        <v>108197</v>
+        <v>118026</v>
       </c>
       <c r="K199" s="11">
-        <v>118026</v>
+        <v>143410</v>
       </c>
       <c r="L199" s="11">
-        <v>143410</v>
+        <v>169768</v>
       </c>
       <c r="M199" s="11">
-        <v>169768</v>
+        <v>145042</v>
       </c>
       <c r="N199" s="11">
-        <v>145042</v>
-      </c>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+        <v>143625</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="8" t="s">
         <v>43</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="s">
         <v>44</v>
       </c>
@@ -7572,37 +7572,37 @@
       </c>
       <c r="D201" s="11"/>
       <c r="E201" s="11">
-        <v>42469</v>
+        <v>46267</v>
       </c>
       <c r="F201" s="11">
-        <v>46267</v>
+        <v>46487</v>
       </c>
       <c r="G201" s="11">
-        <v>46487</v>
+        <v>83262</v>
       </c>
       <c r="H201" s="11">
-        <v>83262</v>
+        <v>88187</v>
       </c>
       <c r="I201" s="11">
-        <v>88187</v>
+        <v>72707</v>
       </c>
       <c r="J201" s="11">
-        <v>72707</v>
+        <v>74000</v>
       </c>
       <c r="K201" s="11">
-        <v>74000</v>
+        <v>50203</v>
       </c>
       <c r="L201" s="11">
-        <v>50203</v>
+        <v>58780</v>
       </c>
       <c r="M201" s="11">
-        <v>58780</v>
+        <v>58962</v>
       </c>
       <c r="N201" s="11">
-        <v>58962</v>
-      </c>
-    </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+        <v>37868</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="8" t="s">
         <v>46</v>
       </c>
@@ -7611,37 +7611,37 @@
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9">
-        <v>22109</v>
+        <v>23293</v>
       </c>
       <c r="F202" s="9">
-        <v>23293</v>
+        <v>44364</v>
       </c>
       <c r="G202" s="9">
-        <v>44364</v>
+        <v>34130</v>
       </c>
       <c r="H202" s="9">
-        <v>34130</v>
+        <v>18021</v>
       </c>
       <c r="I202" s="9">
-        <v>18021</v>
+        <v>68784</v>
       </c>
       <c r="J202" s="9">
-        <v>68784</v>
+        <v>197315</v>
       </c>
       <c r="K202" s="9">
-        <v>197315</v>
+        <v>200686</v>
       </c>
       <c r="L202" s="9">
-        <v>200686</v>
+        <v>289310</v>
       </c>
       <c r="M202" s="9">
-        <v>289310</v>
+        <v>315389</v>
       </c>
       <c r="N202" s="9">
-        <v>315389</v>
-      </c>
-    </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+        <v>255128</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="10" t="s">
         <v>47</v>
       </c>
@@ -7652,14 +7652,14 @@
       <c r="E203" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F203" s="11" t="s">
-        <v>31</v>
+      <c r="F203" s="11">
+        <v>0</v>
       </c>
       <c r="G203" s="11">
         <v>0</v>
       </c>
-      <c r="H203" s="11">
-        <v>0</v>
+      <c r="H203" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I203" s="11" t="s">
         <v>31</v>
@@ -7680,7 +7680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="8" t="s">
         <v>48</v>
       </c>
@@ -7689,16 +7689,16 @@
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9">
-        <v>17295</v>
+        <v>25887</v>
       </c>
       <c r="F204" s="9">
-        <v>25887</v>
+        <v>48601</v>
       </c>
       <c r="G204" s="9">
         <v>48601</v>
       </c>
-      <c r="H204" s="9">
-        <v>48601</v>
+      <c r="H204" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I204" s="9" t="s">
         <v>31</v>
@@ -7719,7 +7719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="10" t="s">
         <v>49</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="8" t="s">
         <v>50</v>
       </c>
@@ -7767,74 +7767,74 @@
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="9">
-        <v>4437</v>
+        <v>828</v>
       </c>
       <c r="F206" s="9">
-        <v>828</v>
+        <v>12386</v>
       </c>
       <c r="G206" s="9">
-        <v>12386</v>
+        <v>14649</v>
       </c>
       <c r="H206" s="9">
-        <v>14649</v>
+        <v>22054</v>
       </c>
       <c r="I206" s="9">
-        <v>22054</v>
+        <v>64422</v>
       </c>
       <c r="J206" s="9">
-        <v>64422</v>
+        <v>55727</v>
       </c>
       <c r="K206" s="9">
-        <v>55727</v>
+        <v>49598</v>
       </c>
       <c r="L206" s="9">
-        <v>49598</v>
+        <v>42436</v>
       </c>
       <c r="M206" s="9">
-        <v>42436</v>
+        <v>48091</v>
       </c>
       <c r="N206" s="9">
-        <v>48091</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+        <v>66153</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
       <c r="E207" s="13">
-        <v>151679</v>
+        <v>177351</v>
       </c>
       <c r="F207" s="13">
-        <v>177351</v>
+        <v>254322</v>
       </c>
       <c r="G207" s="13">
-        <v>254322</v>
+        <v>293290</v>
       </c>
       <c r="H207" s="13">
-        <v>293290</v>
+        <v>246829</v>
       </c>
       <c r="I207" s="13">
-        <v>246829</v>
+        <v>336180</v>
       </c>
       <c r="J207" s="13">
-        <v>336180</v>
+        <v>467923</v>
       </c>
       <c r="K207" s="13">
-        <v>467923</v>
+        <v>481890</v>
       </c>
       <c r="L207" s="13">
-        <v>481890</v>
+        <v>621733</v>
       </c>
       <c r="M207" s="13">
-        <v>621733</v>
+        <v>614977</v>
       </c>
       <c r="N207" s="13">
-        <v>614977</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+        <v>540426</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -7849,7 +7849,7 @@
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -7864,7 +7864,7 @@
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -7879,7 +7879,7 @@
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
     </row>
-    <row r="211" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B211" s="7" t="s">
         <v>59</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -7931,7 +7931,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
         <v>32</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="10" t="s">
         <v>34</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B215" s="8" t="s">
         <v>36</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B216" s="10" t="s">
         <v>37</v>
       </c>
@@ -8057,37 +8057,37 @@
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11">
-        <v>63120</v>
+        <v>75862</v>
       </c>
       <c r="F216" s="11">
-        <v>75862</v>
+        <v>87509</v>
       </c>
       <c r="G216" s="11">
-        <v>87509</v>
+        <v>91898</v>
       </c>
       <c r="H216" s="11">
-        <v>91898</v>
+        <v>105800</v>
       </c>
       <c r="I216" s="11">
-        <v>105800</v>
+        <v>111582</v>
       </c>
       <c r="J216" s="11">
-        <v>111582</v>
+        <v>137569</v>
       </c>
       <c r="K216" s="11">
-        <v>137569</v>
+        <v>160777</v>
       </c>
       <c r="L216" s="11">
-        <v>160777</v>
+        <v>150630</v>
       </c>
       <c r="M216" s="11">
-        <v>150630</v>
+        <v>157386</v>
       </c>
       <c r="N216" s="11">
-        <v>157386</v>
-      </c>
-    </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+        <v>164291</v>
+      </c>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>38</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
         <v>39</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
         <v>40</v>
       </c>
@@ -8174,37 +8174,37 @@
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9">
-        <v>85655</v>
+        <v>119458</v>
       </c>
       <c r="F219" s="9">
-        <v>119458</v>
+        <v>139430</v>
       </c>
       <c r="G219" s="9">
-        <v>139430</v>
+        <v>141450</v>
       </c>
       <c r="H219" s="9">
-        <v>141450</v>
+        <v>163050</v>
       </c>
       <c r="I219" s="9">
-        <v>163050</v>
+        <v>172539</v>
       </c>
       <c r="J219" s="9">
-        <v>172539</v>
+        <v>234921</v>
       </c>
       <c r="K219" s="9">
-        <v>234921</v>
+        <v>256038</v>
       </c>
       <c r="L219" s="9">
-        <v>256038</v>
+        <v>297932</v>
       </c>
       <c r="M219" s="9">
-        <v>297932</v>
+        <v>284856</v>
       </c>
       <c r="N219" s="9">
-        <v>284856</v>
-      </c>
-    </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+        <v>298268</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B220" s="10" t="s">
         <v>41</v>
       </c>
@@ -8213,37 +8213,37 @@
       </c>
       <c r="D220" s="11"/>
       <c r="E220" s="11">
-        <v>329643</v>
+        <v>392050</v>
       </c>
       <c r="F220" s="11">
-        <v>392050</v>
+        <v>405287</v>
       </c>
       <c r="G220" s="11">
-        <v>405287</v>
+        <v>409520</v>
       </c>
       <c r="H220" s="11">
-        <v>409520</v>
+        <v>409534</v>
       </c>
       <c r="I220" s="11">
-        <v>409534</v>
+        <v>409517</v>
       </c>
       <c r="J220" s="11">
-        <v>409517</v>
+        <v>409597</v>
       </c>
       <c r="K220" s="11">
-        <v>409597</v>
+        <v>409402</v>
       </c>
       <c r="L220" s="11">
-        <v>409402</v>
+        <v>1240104</v>
       </c>
       <c r="M220" s="11">
-        <v>1240104</v>
+        <v>1300451</v>
       </c>
       <c r="N220" s="11">
-        <v>1300451</v>
-      </c>
-    </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1312799</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="8" t="s">
         <v>42</v>
       </c>
@@ -8252,37 +8252,37 @@
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9">
-        <v>73355</v>
+        <v>79863</v>
       </c>
       <c r="F221" s="9">
-        <v>79863</v>
+        <v>91918</v>
       </c>
       <c r="G221" s="9">
-        <v>91918</v>
+        <v>99147</v>
       </c>
       <c r="H221" s="9">
-        <v>99147</v>
+        <v>114579</v>
       </c>
       <c r="I221" s="9">
-        <v>114579</v>
+        <v>136840</v>
       </c>
       <c r="J221" s="9">
-        <v>136840</v>
+        <v>156005</v>
       </c>
       <c r="K221" s="9">
-        <v>156005</v>
+        <v>180859</v>
       </c>
       <c r="L221" s="9">
-        <v>180859</v>
+        <v>220364</v>
       </c>
       <c r="M221" s="9">
-        <v>220364</v>
+        <v>229017</v>
       </c>
       <c r="N221" s="9">
-        <v>229017</v>
-      </c>
-    </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+        <v>236628</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B222" s="10" t="s">
         <v>43</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B223" s="8" t="s">
         <v>44</v>
       </c>
@@ -8330,37 +8330,37 @@
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9">
-        <v>16631</v>
+        <v>19403</v>
       </c>
       <c r="F223" s="9">
-        <v>19403</v>
+        <v>24149</v>
       </c>
       <c r="G223" s="9">
-        <v>24149</v>
+        <v>28872</v>
       </c>
       <c r="H223" s="9">
-        <v>28872</v>
+        <v>34242</v>
       </c>
       <c r="I223" s="9">
-        <v>34242</v>
+        <v>33363</v>
       </c>
       <c r="J223" s="9">
-        <v>33363</v>
+        <v>32748</v>
       </c>
       <c r="K223" s="9">
-        <v>32748</v>
+        <v>38172</v>
       </c>
       <c r="L223" s="9">
-        <v>38172</v>
+        <v>32438</v>
       </c>
       <c r="M223" s="9">
-        <v>32438</v>
+        <v>33146</v>
       </c>
       <c r="N223" s="9">
-        <v>33146</v>
-      </c>
-    </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34260</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B224" s="10" t="s">
         <v>46</v>
       </c>
@@ -8369,37 +8369,37 @@
       </c>
       <c r="D224" s="11"/>
       <c r="E224" s="11">
-        <v>877318</v>
+        <v>1267863</v>
       </c>
       <c r="F224" s="11">
-        <v>1267863</v>
+        <v>1280117</v>
       </c>
       <c r="G224" s="11">
-        <v>1280117</v>
+        <v>1375372</v>
       </c>
       <c r="H224" s="11">
-        <v>1375372</v>
+        <v>1630440</v>
       </c>
       <c r="I224" s="11">
-        <v>1630440</v>
+        <v>1860905</v>
       </c>
       <c r="J224" s="11">
-        <v>1860905</v>
+        <v>2684778</v>
       </c>
       <c r="K224" s="11">
-        <v>2684778</v>
+        <v>3664500</v>
       </c>
       <c r="L224" s="11">
-        <v>3664500</v>
+        <v>3440115</v>
       </c>
       <c r="M224" s="11">
-        <v>3440115</v>
+        <v>3439090</v>
       </c>
       <c r="N224" s="11">
-        <v>3439090</v>
-      </c>
-    </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3550878</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B225" s="8" t="s">
         <v>48</v>
       </c>
@@ -8407,18 +8407,18 @@
         <v>61</v>
       </c>
       <c r="D225" s="9"/>
-      <c r="E225" s="9" t="s">
-        <v>31</v>
+      <c r="E225" s="9">
+        <v>1949611</v>
       </c>
       <c r="F225" s="9">
-        <v>1949611</v>
+        <v>1982008</v>
       </c>
       <c r="G225" s="9">
-        <v>1982008</v>
-      </c>
-      <c r="H225" s="9">
         <v>8517525</v>
       </c>
+      <c r="H225" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I225" s="9" t="s">
         <v>31</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B226" s="10" t="s">
         <v>49</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B227" s="8" t="s">
         <v>50</v>
       </c>
@@ -8485,38 +8485,38 @@
         <v>61</v>
       </c>
       <c r="D227" s="9"/>
-      <c r="E227" s="9" t="s">
-        <v>31</v>
+      <c r="E227" s="9">
+        <v>240427</v>
       </c>
       <c r="F227" s="9">
-        <v>240427</v>
+        <v>867925</v>
       </c>
       <c r="G227" s="9">
-        <v>867925</v>
+        <v>531155</v>
       </c>
       <c r="H227" s="9">
-        <v>531155</v>
+        <v>619434</v>
       </c>
       <c r="I227" s="9">
-        <v>619434</v>
+        <v>736336</v>
       </c>
       <c r="J227" s="9">
-        <v>736336</v>
+        <v>1091732</v>
       </c>
       <c r="K227" s="9">
-        <v>1091732</v>
+        <v>1055656</v>
       </c>
       <c r="L227" s="9">
-        <v>1055656</v>
+        <v>1045445</v>
       </c>
       <c r="M227" s="9">
-        <v>1045445</v>
+        <v>749269</v>
       </c>
       <c r="N227" s="9">
-        <v>749269</v>
-      </c>
-    </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+        <v>652825</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -8531,7 +8531,7 @@
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -8546,7 +8546,7 @@
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -8561,7 +8561,7 @@
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B231" s="7" t="s">
         <v>63</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -8613,7 +8613,7 @@
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
     </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B233" s="8" t="s">
         <v>32</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B234" s="10" t="s">
         <v>34</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B235" s="8" t="s">
         <v>37</v>
       </c>
@@ -8700,37 +8700,37 @@
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="9">
-        <v>81288</v>
+        <v>97783</v>
       </c>
       <c r="F235" s="9">
-        <v>97783</v>
+        <v>96193</v>
       </c>
       <c r="G235" s="9">
-        <v>96193</v>
+        <v>126608</v>
       </c>
       <c r="H235" s="9">
-        <v>126608</v>
+        <v>124950</v>
       </c>
       <c r="I235" s="9">
-        <v>124950</v>
+        <v>168438</v>
       </c>
       <c r="J235" s="9">
-        <v>168438</v>
+        <v>170329</v>
       </c>
       <c r="K235" s="9">
-        <v>170329</v>
+        <v>138785</v>
       </c>
       <c r="L235" s="9">
-        <v>138785</v>
+        <v>169793</v>
       </c>
       <c r="M235" s="9">
-        <v>169793</v>
+        <v>170065</v>
       </c>
       <c r="N235" s="9">
-        <v>170065</v>
-      </c>
-    </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+        <v>189997</v>
+      </c>
+    </row>
+    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B236" s="10" t="s">
         <v>38</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B237" s="8" t="s">
         <v>39</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B238" s="10" t="s">
         <v>40</v>
       </c>
@@ -8817,37 +8817,37 @@
       </c>
       <c r="D238" s="11"/>
       <c r="E238" s="11">
-        <v>109015</v>
+        <v>143137</v>
       </c>
       <c r="F238" s="11">
-        <v>143137</v>
+        <v>141941</v>
       </c>
       <c r="G238" s="11">
-        <v>141941</v>
+        <v>183315</v>
       </c>
       <c r="H238" s="11">
-        <v>183315</v>
+        <v>191247</v>
       </c>
       <c r="I238" s="11">
-        <v>191247</v>
+        <v>286961</v>
       </c>
       <c r="J238" s="11">
-        <v>286961</v>
+        <v>277335</v>
       </c>
       <c r="K238" s="11">
-        <v>277335</v>
+        <v>388409</v>
       </c>
       <c r="L238" s="11">
-        <v>388409</v>
+        <v>274226</v>
       </c>
       <c r="M238" s="11">
-        <v>274226</v>
+        <v>318476</v>
       </c>
       <c r="N238" s="11">
-        <v>318476</v>
-      </c>
-    </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
+        <v>319998</v>
+      </c>
+    </row>
+    <row r="239" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B239" s="8" t="s">
         <v>41</v>
       </c>
@@ -8856,14 +8856,14 @@
       </c>
       <c r="D239" s="9"/>
       <c r="E239" s="9">
-        <v>396329</v>
+        <v>414980</v>
       </c>
       <c r="F239" s="9">
-        <v>414980</v>
-      </c>
-      <c r="G239" s="9">
         <v>414959</v>
       </c>
+      <c r="G239" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H239" s="9" t="s">
         <v>31</v>
       </c>
@@ -8873,20 +8873,20 @@
       <c r="J239" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K239" s="9" t="s">
-        <v>31</v>
+      <c r="K239" s="9">
+        <v>1350065</v>
       </c>
       <c r="L239" s="9">
-        <v>1350065</v>
+        <v>1321190</v>
       </c>
       <c r="M239" s="9">
-        <v>1321190</v>
-      </c>
-      <c r="N239" s="9">
         <v>1346058</v>
       </c>
-    </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N239" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B240" s="10" t="s">
         <v>42</v>
       </c>
@@ -8895,37 +8895,37 @@
       </c>
       <c r="D240" s="11"/>
       <c r="E240" s="11">
-        <v>103405</v>
+        <v>145695</v>
       </c>
       <c r="F240" s="11">
-        <v>145695</v>
+        <v>150082</v>
       </c>
       <c r="G240" s="11">
-        <v>150082</v>
+        <v>183488</v>
       </c>
       <c r="H240" s="11">
-        <v>183488</v>
+        <v>233607</v>
       </c>
       <c r="I240" s="11">
-        <v>233607</v>
+        <v>309880</v>
       </c>
       <c r="J240" s="11">
-        <v>309880</v>
+        <v>297920</v>
       </c>
       <c r="K240" s="11">
-        <v>297920</v>
+        <v>314853</v>
       </c>
       <c r="L240" s="11">
-        <v>314853</v>
+        <v>290208</v>
       </c>
       <c r="M240" s="11">
-        <v>290208</v>
+        <v>291846</v>
       </c>
       <c r="N240" s="11">
-        <v>291846</v>
-      </c>
-    </row>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
+        <v>301135</v>
+      </c>
+    </row>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B241" s="8" t="s">
         <v>43</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B242" s="10" t="s">
         <v>44</v>
       </c>
@@ -8973,37 +8973,37 @@
       </c>
       <c r="D242" s="11"/>
       <c r="E242" s="11">
-        <v>21348</v>
+        <v>35675</v>
       </c>
       <c r="F242" s="11">
-        <v>35675</v>
+        <v>49835</v>
       </c>
       <c r="G242" s="11">
-        <v>49835</v>
+        <v>42197</v>
       </c>
       <c r="H242" s="11">
-        <v>42197</v>
+        <v>37686</v>
       </c>
       <c r="I242" s="11">
-        <v>37686</v>
+        <v>47686</v>
       </c>
       <c r="J242" s="11">
-        <v>47686</v>
+        <v>42571</v>
       </c>
       <c r="K242" s="11">
-        <v>42571</v>
+        <v>37597</v>
       </c>
       <c r="L242" s="11">
-        <v>37597</v>
+        <v>40880</v>
       </c>
       <c r="M242" s="11">
-        <v>40880</v>
+        <v>34620</v>
       </c>
       <c r="N242" s="11">
-        <v>34620</v>
-      </c>
-    </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
+        <v>37559</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B243" s="8" t="s">
         <v>46</v>
       </c>
@@ -9012,37 +9012,37 @@
       </c>
       <c r="D243" s="9"/>
       <c r="E243" s="9">
-        <v>1137562</v>
+        <v>1278725</v>
       </c>
       <c r="F243" s="9">
-        <v>1278725</v>
+        <v>1438352</v>
       </c>
       <c r="G243" s="9">
-        <v>1438352</v>
+        <v>2075963</v>
       </c>
       <c r="H243" s="9">
-        <v>2075963</v>
+        <v>2130529</v>
       </c>
       <c r="I243" s="9">
-        <v>2130529</v>
+        <v>2770139</v>
       </c>
       <c r="J243" s="9">
-        <v>2770139</v>
+        <v>4108871</v>
       </c>
       <c r="K243" s="9">
-        <v>4108871</v>
+        <v>2865461</v>
       </c>
       <c r="L243" s="9">
-        <v>2865461</v>
+        <v>3261246</v>
       </c>
       <c r="M243" s="9">
-        <v>3261246</v>
+        <v>3878388</v>
       </c>
       <c r="N243" s="9">
-        <v>3878388</v>
-      </c>
-    </row>
-    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4247196</v>
+      </c>
+    </row>
+    <row r="244" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B244" s="10" t="s">
         <v>48</v>
       </c>
@@ -9050,15 +9050,15 @@
         <v>61</v>
       </c>
       <c r="D244" s="11"/>
-      <c r="E244" s="11" t="s">
-        <v>31</v>
+      <c r="E244" s="11">
+        <v>2050597</v>
       </c>
       <c r="F244" s="11">
-        <v>2050597</v>
-      </c>
-      <c r="G244" s="11">
         <v>4795374</v>
       </c>
+      <c r="G244" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H244" s="11" t="s">
         <v>31</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B245" s="8" t="s">
         <v>49</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B246" s="10" t="s">
         <v>50</v>
       </c>
@@ -9128,38 +9128,38 @@
         <v>61</v>
       </c>
       <c r="D246" s="11"/>
-      <c r="E246" s="11" t="s">
-        <v>31</v>
+      <c r="E246" s="11">
+        <v>682198</v>
       </c>
       <c r="F246" s="11">
-        <v>682198</v>
+        <v>883291</v>
       </c>
       <c r="G246" s="11">
-        <v>883291</v>
+        <v>890059</v>
       </c>
       <c r="H246" s="11">
-        <v>890059</v>
+        <v>807825</v>
       </c>
       <c r="I246" s="11">
-        <v>807825</v>
-      </c>
-      <c r="J246" s="11">
         <v>1428960</v>
       </c>
+      <c r="J246" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="K246" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L246" s="11" t="s">
-        <v>31</v>
+      <c r="L246" s="11">
+        <v>895676</v>
       </c>
       <c r="M246" s="11">
-        <v>895676</v>
+        <v>239306</v>
       </c>
       <c r="N246" s="11">
-        <v>239306</v>
-      </c>
-    </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
+        <v>319729</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -9174,7 +9174,7 @@
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
     </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -9189,7 +9189,7 @@
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
     </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -9204,7 +9204,7 @@
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
     </row>
-    <row r="250" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B250" s="7" t="s">
         <v>64</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -9256,7 +9256,7 @@
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
     </row>
-    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B252" s="8" t="s">
         <v>32</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B253" s="10" t="s">
         <v>34</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B254" s="8" t="s">
         <v>36</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B255" s="10" t="s">
         <v>37</v>
       </c>
@@ -9382,37 +9382,37 @@
       </c>
       <c r="D255" s="11"/>
       <c r="E255" s="11">
-        <v>65340</v>
+        <v>82626</v>
       </c>
       <c r="F255" s="11">
-        <v>82626</v>
+        <v>90217</v>
       </c>
       <c r="G255" s="11">
-        <v>90217</v>
+        <v>99576</v>
       </c>
       <c r="H255" s="11">
-        <v>99576</v>
+        <v>109067</v>
       </c>
       <c r="I255" s="11">
-        <v>109067</v>
+        <v>128536</v>
       </c>
       <c r="J255" s="11">
-        <v>128536</v>
+        <v>152349</v>
       </c>
       <c r="K255" s="11">
-        <v>152349</v>
+        <v>139500</v>
       </c>
       <c r="L255" s="11">
-        <v>139500</v>
+        <v>157213</v>
       </c>
       <c r="M255" s="11">
-        <v>157213</v>
+        <v>163165</v>
       </c>
       <c r="N255" s="11">
-        <v>163165</v>
-      </c>
-    </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
+        <v>178391</v>
+      </c>
+    </row>
+    <row r="256" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B256" s="8" t="s">
         <v>38</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B257" s="10" t="s">
         <v>39</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B258" s="8" t="s">
         <v>40</v>
       </c>
@@ -9499,37 +9499,37 @@
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="9">
-        <v>93743</v>
+        <v>134106</v>
       </c>
       <c r="F258" s="9">
-        <v>134106</v>
+        <v>140054</v>
       </c>
       <c r="G258" s="9">
-        <v>140054</v>
+        <v>153706</v>
       </c>
       <c r="H258" s="9">
-        <v>153706</v>
+        <v>167744</v>
       </c>
       <c r="I258" s="9">
-        <v>167744</v>
+        <v>220584</v>
       </c>
       <c r="J258" s="9">
-        <v>220584</v>
+        <v>250867</v>
       </c>
       <c r="K258" s="9">
-        <v>250867</v>
+        <v>264449</v>
       </c>
       <c r="L258" s="9">
-        <v>264449</v>
+        <v>288609</v>
       </c>
       <c r="M258" s="9">
-        <v>288609</v>
+        <v>290248</v>
       </c>
       <c r="N258" s="9">
-        <v>290248</v>
-      </c>
-    </row>
-    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
+        <v>306430</v>
+      </c>
+    </row>
+    <row r="259" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B259" s="10" t="s">
         <v>41</v>
       </c>
@@ -9538,37 +9538,37 @@
       </c>
       <c r="D259" s="11"/>
       <c r="E259" s="11">
-        <v>384185</v>
+        <v>398219</v>
       </c>
       <c r="F259" s="11">
-        <v>398219</v>
+        <v>408294</v>
       </c>
       <c r="G259" s="11">
-        <v>408294</v>
+        <v>409621</v>
       </c>
       <c r="H259" s="11">
-        <v>409621</v>
+        <v>409572</v>
       </c>
       <c r="I259" s="11">
-        <v>409572</v>
+        <v>409406</v>
       </c>
       <c r="J259" s="11">
-        <v>409406</v>
+        <v>409900</v>
       </c>
       <c r="K259" s="11">
-        <v>409900</v>
+        <v>973792</v>
       </c>
       <c r="L259" s="11">
-        <v>973792</v>
+        <v>1277823</v>
       </c>
       <c r="M259" s="11">
-        <v>1277823</v>
+        <v>1306258</v>
       </c>
       <c r="N259" s="11">
-        <v>1306258</v>
-      </c>
-    </row>
-    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1312768</v>
+      </c>
+    </row>
+    <row r="260" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B260" s="8" t="s">
         <v>42</v>
       </c>
@@ -9577,37 +9577,37 @@
       </c>
       <c r="D260" s="9"/>
       <c r="E260" s="9">
-        <v>85589</v>
+        <v>110160</v>
       </c>
       <c r="F260" s="9">
-        <v>110160</v>
+        <v>122529</v>
       </c>
       <c r="G260" s="9">
-        <v>122529</v>
+        <v>130070</v>
       </c>
       <c r="H260" s="9">
-        <v>130070</v>
+        <v>158354</v>
       </c>
       <c r="I260" s="9">
-        <v>158354</v>
+        <v>232005</v>
       </c>
       <c r="J260" s="9">
-        <v>232005</v>
+        <v>202089</v>
       </c>
       <c r="K260" s="9">
-        <v>202089</v>
+        <v>229518</v>
       </c>
       <c r="L260" s="9">
-        <v>229518</v>
+        <v>-308577</v>
       </c>
       <c r="M260" s="9">
-        <v>-308577</v>
+        <v>232783</v>
       </c>
       <c r="N260" s="9">
-        <v>232783</v>
-      </c>
-    </row>
-    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
+        <v>246502</v>
+      </c>
+    </row>
+    <row r="261" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B261" s="10" t="s">
         <v>43</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B262" s="8" t="s">
         <v>44</v>
       </c>
@@ -9655,37 +9655,37 @@
       </c>
       <c r="D262" s="9"/>
       <c r="E262" s="9">
-        <v>17967</v>
+        <v>27164</v>
       </c>
       <c r="F262" s="9">
-        <v>27164</v>
+        <v>31017</v>
       </c>
       <c r="G262" s="9">
-        <v>31017</v>
+        <v>40715</v>
       </c>
       <c r="H262" s="9">
-        <v>40715</v>
+        <v>40761</v>
       </c>
       <c r="I262" s="9">
-        <v>40761</v>
+        <v>42521</v>
       </c>
       <c r="J262" s="9">
-        <v>42521</v>
+        <v>26489</v>
       </c>
       <c r="K262" s="9">
-        <v>26489</v>
+        <v>49516</v>
       </c>
       <c r="L262" s="9">
-        <v>49516</v>
+        <v>32720</v>
       </c>
       <c r="M262" s="9">
-        <v>32720</v>
+        <v>33146</v>
       </c>
       <c r="N262" s="9">
-        <v>33146</v>
-      </c>
-    </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35997</v>
+      </c>
+    </row>
+    <row r="263" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B263" s="10" t="s">
         <v>46</v>
       </c>
@@ -9694,37 +9694,37 @@
       </c>
       <c r="D263" s="11"/>
       <c r="E263" s="11">
-        <v>917524</v>
+        <v>1262609</v>
       </c>
       <c r="F263" s="11">
-        <v>1262609</v>
+        <v>1358772</v>
       </c>
       <c r="G263" s="11">
-        <v>1358772</v>
+        <v>1451745</v>
       </c>
       <c r="H263" s="11">
-        <v>1451745</v>
+        <v>1718526</v>
       </c>
       <c r="I263" s="11">
-        <v>1718526</v>
+        <v>2318455</v>
       </c>
       <c r="J263" s="11">
-        <v>2318455</v>
+        <v>3273223</v>
       </c>
       <c r="K263" s="11">
-        <v>3273223</v>
+        <v>3483953</v>
       </c>
       <c r="L263" s="11">
-        <v>3483953</v>
+        <v>2826237</v>
       </c>
       <c r="M263" s="11">
-        <v>2826237</v>
+        <v>3547143</v>
       </c>
       <c r="N263" s="11">
-        <v>3547143</v>
-      </c>
-    </row>
-    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3557322</v>
+      </c>
+    </row>
+    <row r="264" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B264" s="8" t="s">
         <v>48</v>
       </c>
@@ -9735,12 +9735,12 @@
       <c r="E264" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F264" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G264" s="9">
+      <c r="F264" s="9">
         <v>3345775</v>
       </c>
+      <c r="G264" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H264" s="9" t="s">
         <v>31</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B265" s="10" t="s">
         <v>49</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B266" s="8" t="s">
         <v>50</v>
       </c>
@@ -9810,38 +9810,38 @@
         <v>61</v>
       </c>
       <c r="D266" s="9"/>
-      <c r="E266" s="9" t="s">
-        <v>31</v>
+      <c r="E266" s="9">
+        <v>415041</v>
       </c>
       <c r="F266" s="9">
-        <v>415041</v>
+        <v>258101</v>
       </c>
       <c r="G266" s="9">
-        <v>258101</v>
+        <v>734437</v>
       </c>
       <c r="H266" s="9">
-        <v>734437</v>
+        <v>622447</v>
       </c>
       <c r="I266" s="9">
-        <v>622447</v>
+        <v>1301119</v>
       </c>
       <c r="J266" s="9">
-        <v>1301119</v>
+        <v>1299357</v>
       </c>
       <c r="K266" s="9">
-        <v>1299357</v>
+        <v>1146437</v>
       </c>
       <c r="L266" s="9">
-        <v>1146437</v>
+        <v>147091</v>
       </c>
       <c r="M266" s="9">
-        <v>147091</v>
+        <v>229641</v>
       </c>
       <c r="N266" s="9">
-        <v>229641</v>
-      </c>
-    </row>
-    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7553</v>
+      </c>
+    </row>
+    <row r="267" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -9856,7 +9856,7 @@
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
     </row>
-    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -9871,7 +9871,7 @@
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
     </row>
-    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -9886,7 +9886,7 @@
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
     </row>
-    <row r="270" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B270" s="7" t="s">
         <v>65</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -9938,7 +9938,7 @@
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
     </row>
-    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B272" s="8" t="s">
         <v>32</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B273" s="10" t="s">
         <v>34</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B274" s="8" t="s">
         <v>36</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B275" s="10" t="s">
         <v>37</v>
       </c>
@@ -10066,35 +10066,35 @@
       <c r="E275" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F275" s="11" t="s">
-        <v>31</v>
+      <c r="F275" s="11">
+        <v>91898</v>
       </c>
       <c r="G275" s="11">
-        <v>91898</v>
+        <v>105800</v>
       </c>
       <c r="H275" s="11">
-        <v>105800</v>
+        <v>111582</v>
       </c>
       <c r="I275" s="11">
-        <v>111582</v>
+        <v>137569</v>
       </c>
       <c r="J275" s="11">
-        <v>137569</v>
+        <v>160777</v>
       </c>
       <c r="K275" s="11">
-        <v>160777</v>
+        <v>150630</v>
       </c>
       <c r="L275" s="11">
-        <v>150630</v>
+        <v>157386</v>
       </c>
       <c r="M275" s="11">
-        <v>157386</v>
+        <v>164291</v>
       </c>
       <c r="N275" s="11">
-        <v>164291</v>
-      </c>
-    </row>
-    <row r="276" spans="2:14" x14ac:dyDescent="0.25">
+        <v>182363</v>
+      </c>
+    </row>
+    <row r="276" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B276" s="8" t="s">
         <v>38</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B277" s="10" t="s">
         <v>39</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B278" s="8" t="s">
         <v>40</v>
       </c>
@@ -10183,35 +10183,35 @@
       <c r="E278" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F278" s="9" t="s">
-        <v>31</v>
+      <c r="F278" s="9">
+        <v>141450</v>
       </c>
       <c r="G278" s="9">
-        <v>141450</v>
+        <v>163050</v>
       </c>
       <c r="H278" s="9">
-        <v>163050</v>
+        <v>172539</v>
       </c>
       <c r="I278" s="9">
-        <v>172539</v>
+        <v>234921</v>
       </c>
       <c r="J278" s="9">
-        <v>234921</v>
+        <v>256038</v>
       </c>
       <c r="K278" s="9">
-        <v>256038</v>
+        <v>297932</v>
       </c>
       <c r="L278" s="9">
-        <v>297932</v>
+        <v>284866</v>
       </c>
       <c r="M278" s="9">
-        <v>284866</v>
+        <v>298268</v>
       </c>
       <c r="N278" s="9">
-        <v>298268</v>
-      </c>
-    </row>
-    <row r="279" spans="2:14" x14ac:dyDescent="0.25">
+        <v>310946</v>
+      </c>
+    </row>
+    <row r="279" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B279" s="10" t="s">
         <v>41</v>
       </c>
@@ -10222,35 +10222,35 @@
       <c r="E279" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F279" s="11" t="s">
-        <v>31</v>
+      <c r="F279" s="11">
+        <v>409520</v>
       </c>
       <c r="G279" s="11">
-        <v>409520</v>
+        <v>409534</v>
       </c>
       <c r="H279" s="11">
-        <v>409534</v>
+        <v>409517</v>
       </c>
       <c r="I279" s="11">
-        <v>409517</v>
+        <v>409597</v>
       </c>
       <c r="J279" s="11">
-        <v>409597</v>
+        <v>409402</v>
       </c>
       <c r="K279" s="11">
-        <v>409402</v>
+        <v>1240104</v>
       </c>
       <c r="L279" s="11">
-        <v>1240104</v>
+        <v>1300451</v>
       </c>
       <c r="M279" s="11">
-        <v>1300451</v>
+        <v>1312799</v>
       </c>
       <c r="N279" s="11">
-        <v>1312799</v>
-      </c>
-    </row>
-    <row r="280" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1312810</v>
+      </c>
+    </row>
+    <row r="280" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B280" s="8" t="s">
         <v>42</v>
       </c>
@@ -10261,35 +10261,35 @@
       <c r="E280" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F280" s="9" t="s">
-        <v>31</v>
+      <c r="F280" s="9">
+        <v>99147</v>
       </c>
       <c r="G280" s="9">
-        <v>99147</v>
+        <v>114579</v>
       </c>
       <c r="H280" s="9">
-        <v>114579</v>
+        <v>136840</v>
       </c>
       <c r="I280" s="9">
-        <v>136840</v>
+        <v>156005</v>
       </c>
       <c r="J280" s="9">
-        <v>156005</v>
+        <v>180859</v>
       </c>
       <c r="K280" s="9">
-        <v>180859</v>
+        <v>220364</v>
       </c>
       <c r="L280" s="9">
-        <v>220364</v>
+        <v>167498</v>
       </c>
       <c r="M280" s="9">
-        <v>167498</v>
+        <v>236628</v>
       </c>
       <c r="N280" s="9">
-        <v>236628</v>
-      </c>
-    </row>
-    <row r="281" spans="2:14" x14ac:dyDescent="0.25">
+        <v>251168</v>
+      </c>
+    </row>
+    <row r="281" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B281" s="10" t="s">
         <v>43</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B282" s="8" t="s">
         <v>44</v>
       </c>
@@ -10339,35 +10339,35 @@
       <c r="E282" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F282" s="9" t="s">
-        <v>31</v>
+      <c r="F282" s="9">
+        <v>28872</v>
       </c>
       <c r="G282" s="9">
-        <v>28872</v>
+        <v>34242</v>
       </c>
       <c r="H282" s="9">
-        <v>34242</v>
+        <v>33363</v>
       </c>
       <c r="I282" s="9">
-        <v>33363</v>
+        <v>32748</v>
       </c>
       <c r="J282" s="9">
-        <v>32748</v>
+        <v>38172</v>
       </c>
       <c r="K282" s="9">
-        <v>38172</v>
+        <v>32438</v>
       </c>
       <c r="L282" s="9">
-        <v>32438</v>
+        <v>36063</v>
       </c>
       <c r="M282" s="9">
-        <v>36063</v>
+        <v>34260</v>
       </c>
       <c r="N282" s="9">
-        <v>34260</v>
-      </c>
-    </row>
-    <row r="283" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34831</v>
+      </c>
+    </row>
+    <row r="283" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B283" s="10" t="s">
         <v>46</v>
       </c>
@@ -10378,35 +10378,35 @@
       <c r="E283" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F283" s="11" t="s">
-        <v>31</v>
+      <c r="F283" s="11">
+        <v>1375372</v>
       </c>
       <c r="G283" s="11">
-        <v>1375372</v>
+        <v>1630440</v>
       </c>
       <c r="H283" s="11">
-        <v>1630440</v>
+        <v>1860905</v>
       </c>
       <c r="I283" s="11">
-        <v>1860905</v>
+        <v>2684778</v>
       </c>
       <c r="J283" s="11">
-        <v>2684778</v>
+        <v>3664500</v>
       </c>
       <c r="K283" s="11">
-        <v>3664500</v>
+        <v>3440115</v>
       </c>
       <c r="L283" s="11">
-        <v>3440115</v>
+        <v>3439090</v>
       </c>
       <c r="M283" s="11">
-        <v>3439090</v>
+        <v>3550878</v>
       </c>
       <c r="N283" s="11">
-        <v>3550878</v>
-      </c>
-    </row>
-    <row r="284" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3569971</v>
+      </c>
+    </row>
+    <row r="284" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B284" s="8" t="s">
         <v>48</v>
       </c>
@@ -10417,15 +10417,15 @@
       <c r="E284" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F284" s="9" t="s">
-        <v>31</v>
+      <c r="F284" s="9">
+        <v>8517525</v>
       </c>
       <c r="G284" s="9">
-        <v>8517525</v>
-      </c>
-      <c r="H284" s="9">
         <v>3345794</v>
       </c>
+      <c r="H284" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I284" s="9" t="s">
         <v>31</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B285" s="10" t="s">
         <v>49</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B286" s="8" t="s">
         <v>50</v>
       </c>
@@ -10495,35 +10495,35 @@
       <c r="E286" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F286" s="9" t="s">
-        <v>31</v>
+      <c r="F286" s="9">
+        <v>531155</v>
       </c>
       <c r="G286" s="9">
-        <v>531155</v>
+        <v>619434</v>
       </c>
       <c r="H286" s="9">
-        <v>619434</v>
+        <v>736336</v>
       </c>
       <c r="I286" s="9">
-        <v>736336</v>
+        <v>1091732</v>
       </c>
       <c r="J286" s="9">
-        <v>1091732</v>
+        <v>1055656</v>
       </c>
       <c r="K286" s="9">
-        <v>1055656</v>
+        <v>1045445</v>
       </c>
       <c r="L286" s="9">
-        <v>1045445</v>
+        <v>6882258</v>
       </c>
       <c r="M286" s="9">
-        <v>6882258</v>
+        <v>652825</v>
       </c>
       <c r="N286" s="9">
-        <v>652825</v>
-      </c>
-    </row>
-    <row r="287" spans="2:14" x14ac:dyDescent="0.25">
+        <v>988140</v>
+      </c>
+    </row>
+    <row r="287" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -10538,7 +10538,7 @@
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
     </row>
-    <row r="288" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -10553,7 +10553,7 @@
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
     </row>
-    <row r="289" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -10568,7 +10568,7 @@
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
     </row>
-    <row r="290" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B290" s="7" t="s">
         <v>66</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -10620,7 +10620,7 @@
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
     </row>
-    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B292" s="8" t="s">
         <v>67</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B293" s="10" t="s">
         <v>68</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B294" s="8" t="s">
         <v>69</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B295" s="10" t="s">
         <v>70</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B296" s="8" t="s">
         <v>71</v>
       </c>
@@ -10805,118 +10805,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B297" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
       <c r="E297" s="11">
-        <v>68235</v>
+        <v>39035</v>
       </c>
       <c r="F297" s="11">
-        <v>39035</v>
+        <v>33638</v>
       </c>
       <c r="G297" s="11">
-        <v>33638</v>
+        <v>71772</v>
       </c>
       <c r="H297" s="11">
-        <v>71772</v>
+        <v>131858</v>
       </c>
       <c r="I297" s="11">
-        <v>131858</v>
+        <v>159116</v>
       </c>
       <c r="J297" s="11">
-        <v>159116</v>
+        <v>126082</v>
       </c>
       <c r="K297" s="11">
-        <v>126082</v>
+        <v>300896</v>
       </c>
       <c r="L297" s="11">
-        <v>300896</v>
+        <v>123894</v>
       </c>
       <c r="M297" s="11">
-        <v>123894</v>
+        <v>218130</v>
       </c>
       <c r="N297" s="11">
-        <v>218130</v>
-      </c>
-    </row>
-    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
+        <v>229433</v>
+      </c>
+    </row>
+    <row r="298" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B298" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
       <c r="E298" s="9">
-        <v>20716</v>
+        <v>16720</v>
       </c>
       <c r="F298" s="9">
-        <v>16720</v>
+        <v>23104</v>
       </c>
       <c r="G298" s="9">
-        <v>23104</v>
+        <v>23087</v>
       </c>
       <c r="H298" s="9">
-        <v>23087</v>
+        <v>13353</v>
       </c>
       <c r="I298" s="9">
-        <v>13353</v>
+        <v>22042</v>
       </c>
       <c r="J298" s="9">
-        <v>22042</v>
+        <v>14248</v>
       </c>
       <c r="K298" s="9">
-        <v>14248</v>
+        <v>30801</v>
       </c>
       <c r="L298" s="9">
-        <v>30801</v>
+        <v>13514</v>
       </c>
       <c r="M298" s="9">
-        <v>13514</v>
+        <v>24410</v>
       </c>
       <c r="N298" s="9">
-        <v>24410</v>
-      </c>
-    </row>
-    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24728</v>
+      </c>
+    </row>
+    <row r="299" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B299" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
       <c r="E299" s="11">
-        <v>67005</v>
+        <v>73792</v>
       </c>
       <c r="F299" s="11">
-        <v>73792</v>
+        <v>60819</v>
       </c>
       <c r="G299" s="11">
-        <v>60819</v>
+        <v>99201</v>
       </c>
       <c r="H299" s="11">
-        <v>99201</v>
+        <v>127198</v>
       </c>
       <c r="I299" s="11">
-        <v>127198</v>
+        <v>101060</v>
       </c>
       <c r="J299" s="11">
-        <v>101060</v>
+        <v>93073</v>
       </c>
       <c r="K299" s="11">
-        <v>93073</v>
+        <v>190635</v>
       </c>
       <c r="L299" s="11">
-        <v>190635</v>
+        <v>132625</v>
       </c>
       <c r="M299" s="11">
-        <v>132625</v>
+        <v>149596</v>
       </c>
       <c r="N299" s="11">
-        <v>149596</v>
-      </c>
-    </row>
-    <row r="300" spans="2:14" x14ac:dyDescent="0.25">
+        <v>223684</v>
+      </c>
+    </row>
+    <row r="300" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B300" s="8" t="s">
         <v>75</v>
       </c>
@@ -10953,81 +10953,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B301" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
       <c r="E301" s="11">
-        <v>91602</v>
+        <v>58600</v>
       </c>
       <c r="F301" s="11">
-        <v>58600</v>
+        <v>144094</v>
       </c>
       <c r="G301" s="11">
-        <v>144094</v>
+        <v>75264</v>
       </c>
       <c r="H301" s="11">
-        <v>75264</v>
+        <v>66139</v>
       </c>
       <c r="I301" s="11">
-        <v>66139</v>
+        <v>109638</v>
       </c>
       <c r="J301" s="11">
-        <v>109638</v>
+        <v>239513</v>
       </c>
       <c r="K301" s="11">
-        <v>239513</v>
+        <v>53340</v>
       </c>
       <c r="L301" s="11">
-        <v>53340</v>
+        <v>286678</v>
       </c>
       <c r="M301" s="11">
-        <v>286678</v>
+        <v>180878</v>
       </c>
       <c r="N301" s="11">
-        <v>180878</v>
-      </c>
-    </row>
-    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36810</v>
+      </c>
+    </row>
+    <row r="302" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B302" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C302" s="15"/>
       <c r="D302" s="15"/>
       <c r="E302" s="15">
-        <v>247558</v>
+        <v>188147</v>
       </c>
       <c r="F302" s="15">
-        <v>188147</v>
+        <v>261655</v>
       </c>
       <c r="G302" s="15">
-        <v>261655</v>
+        <v>269324</v>
       </c>
       <c r="H302" s="15">
-        <v>269324</v>
+        <v>338548</v>
       </c>
       <c r="I302" s="15">
-        <v>338548</v>
+        <v>391856</v>
       </c>
       <c r="J302" s="15">
-        <v>391856</v>
+        <v>472916</v>
       </c>
       <c r="K302" s="15">
-        <v>472916</v>
+        <v>575672</v>
       </c>
       <c r="L302" s="15">
-        <v>575672</v>
+        <v>556711</v>
       </c>
       <c r="M302" s="15">
-        <v>556711</v>
+        <v>573014</v>
       </c>
       <c r="N302" s="15">
-        <v>573014</v>
-      </c>
-    </row>
-    <row r="303" spans="2:14" x14ac:dyDescent="0.25">
+        <v>514655</v>
+      </c>
+    </row>
+    <row r="303" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -11042,7 +11042,7 @@
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
     </row>
-    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -11057,7 +11057,7 @@
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
     </row>
-    <row r="305" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -11072,7 +11072,7 @@
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
     </row>
-    <row r="306" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B306" s="7" t="s">
         <v>77</v>
       </c>
@@ -11089,7 +11089,7 @@
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
     </row>
-    <row r="307" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -11104,7 +11104,7 @@
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
     </row>
-    <row r="308" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B308" s="8" t="s">
         <v>78</v>
       </c>
@@ -11115,7 +11115,7 @@
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
     </row>
-    <row r="309" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B309" s="10" t="s">
         <v>80</v>
       </c>
@@ -11126,7 +11126,7 @@
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B310" s="8" t="s">
         <v>82</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
     </row>
-    <row r="311" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B311" s="10" t="s">
         <v>83</v>
       </c>
@@ -11148,7 +11148,7 @@
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B312" s="8" t="s">
         <v>85</v>
       </c>
@@ -11159,7 +11159,7 @@
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
     </row>
-    <row r="313" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B313" s="10" t="s">
         <v>86</v>
       </c>
@@ -11170,7 +11170,7 @@
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B314" s="8" t="s">
         <v>88</v>
       </c>
@@ -11181,7 +11181,7 @@
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
     </row>
-    <row r="315" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B315" s="10" t="s">
         <v>90</v>
       </c>
@@ -11192,7 +11192,7 @@
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B316" s="8" t="s">
         <v>92</v>
       </c>
@@ -11203,7 +11203,7 @@
       <c r="E316" s="9"/>
       <c r="F316" s="9"/>
     </row>
-    <row r="317" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B317" s="10" t="s">
         <v>94</v>
       </c>
@@ -11214,7 +11214,7 @@
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B318" s="8" t="s">
         <v>96</v>
       </c>
